--- a/Masterdata 1212017.xlsx
+++ b/Masterdata 1212017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,40 +375,65 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Energy_Eff</t>
+          <t>Energy_Eff.x</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Service.x</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Renewable</t>
+          <t>Renewable.x</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Industry.x</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Emp_Pop</t>
+          <t>Emp_Pop.x</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>education_index</t>
+          <t>Energy_Eff.y</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Service.y</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Renewable.y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Industry.y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Emp_Pop.y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Income_Level</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>GNI</t>
         </is>
@@ -441,15 +466,30 @@
       <c r="H2">
         <v>41.5670013427734</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2">
+        <v>14.00858403532395</v>
+      </c>
+      <c r="J2">
+        <v>6049197694.900985</v>
+      </c>
+      <c r="K2">
+        <v>38.6894965993971</v>
+      </c>
+      <c r="L2">
+        <v>2843639432.229292</v>
+      </c>
+      <c r="M2">
+        <v>41.5670013427734</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>0.60851936340332036</t>
         </is>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>13061911627.12649</v>
       </c>
     </row>
@@ -480,15 +520,30 @@
       <c r="H3">
         <v>76.9599990844727</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3">
+        <v>8.694679035696984</v>
+      </c>
+      <c r="J3">
+        <v>220101536883.1804</v>
+      </c>
+      <c r="K3">
+        <v>0.167806950232284</v>
+      </c>
+      <c r="L3">
+        <v>180523447553.8688</v>
+      </c>
+      <c r="M3">
+        <v>76.9599990844727</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>0.67321495406717657</t>
         </is>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>403856634555.518</v>
       </c>
     </row>
@@ -519,15 +574,30 @@
       <c r="H4">
         <v>56.4790000915527</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4">
+        <v>9.826015510823172</v>
+      </c>
+      <c r="J4">
+        <v>278636495643.7783</v>
+      </c>
+      <c r="K4">
+        <v>10.7731248609902</v>
+      </c>
+      <c r="L4">
+        <v>127776703489.5749</v>
+      </c>
+      <c r="M4">
+        <v>56.4790000915527</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>0.78335559705298508</t>
         </is>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>515582856206.232</v>
       </c>
     </row>
@@ -558,15 +628,30 @@
       <c r="H5">
         <v>51.9469985961914</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5">
+        <v>8.247696489617434</v>
+      </c>
+      <c r="J5">
+        <v>5264093462.249213</v>
+      </c>
+      <c r="K5">
+        <v>7.7247338654504</v>
+      </c>
+      <c r="L5">
+        <v>2933785792.357084</v>
+      </c>
+      <c r="M5">
+        <v>51.9469985961914</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>0.70136666666666669</t>
         </is>
       </c>
-      <c r="J5">
+      <c r="O5">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="P5">
         <v>12150313552.51661</v>
       </c>
     </row>
@@ -597,15 +682,30 @@
       <c r="H6">
         <v>60.8629989624023</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6">
+        <v>8.700868910190668</v>
+      </c>
+      <c r="J6">
+        <v>958428348480.6758</v>
+      </c>
+      <c r="K6">
+        <v>9.49756781534329</v>
+      </c>
+      <c r="L6">
+        <v>371768107959.2399</v>
+      </c>
+      <c r="M6">
+        <v>60.8629989624023</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>0.92653552042643339</t>
         </is>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>1421211787386.395</v>
       </c>
     </row>
@@ -636,15 +736,30 @@
       <c r="H7">
         <v>56.8409996032715</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7">
+        <v>12.91112391096773</v>
+      </c>
+      <c r="J7">
+        <v>274846586331.6267</v>
+      </c>
+      <c r="K7">
+        <v>35.7839266718351</v>
+      </c>
+      <c r="L7">
+        <v>110448872448.2157</v>
+      </c>
+      <c r="M7">
+        <v>56.8409996032715</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>0.79448102740988591</t>
         </is>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>439271060434.5928</v>
       </c>
     </row>
@@ -675,15 +790,30 @@
       <c r="H8">
         <v>61.5309982299805</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8">
+        <v>11.7221748266</v>
+      </c>
+      <c r="J8">
+        <v>25090654086.44652</v>
+      </c>
+      <c r="K8">
+        <v>2.11681848302002</v>
+      </c>
+      <c r="L8">
+        <v>40632028560.49982</v>
+      </c>
+      <c r="M8">
+        <v>61.5309982299805</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>0.69977777777777783</t>
         </is>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>73087339028.433</v>
       </c>
     </row>
@@ -714,15 +844,30 @@
       <c r="H9">
         <v>49.0349998474121</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9">
+        <v>9.514160607505595</v>
+      </c>
+      <c r="J9">
+        <v>367618018613.3077</v>
+      </c>
+      <c r="K9">
+        <v>9.03805711114229</v>
+      </c>
+      <c r="L9">
+        <v>104577133663.5211</v>
+      </c>
+      <c r="M9">
+        <v>49.0349998474121</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>0.81229168814412056</t>
         </is>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>534584143078.5015</v>
       </c>
     </row>
@@ -753,15 +898,30 @@
       <c r="H10">
         <v>70.9010009765625</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10">
+        <v>5.057587773467022</v>
+      </c>
+      <c r="J10">
+        <v>4477817218.328732</v>
+      </c>
+      <c r="K10">
+        <v>48.6007363668526</v>
+      </c>
+      <c r="L10">
+        <v>2015917801.846627</v>
+      </c>
+      <c r="M10">
+        <v>70.9010009765625</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>0.41355555555555557</t>
         </is>
       </c>
-      <c r="J10">
+      <c r="O10">
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="P10">
         <v>9646277722.15649</v>
       </c>
     </row>
@@ -792,15 +952,30 @@
       <c r="H11">
         <v>59.443000793457</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11">
+        <v>14.09313359135622</v>
+      </c>
+      <c r="J11">
+        <v>92728417856.29274</v>
+      </c>
+      <c r="K11">
+        <v>37.4850319815536</v>
+      </c>
+      <c r="L11">
+        <v>45487972928.6353</v>
+      </c>
+      <c r="M11">
+        <v>59.443000793457</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>0.44688044481397404</t>
         </is>
       </c>
-      <c r="J11">
+      <c r="O11">
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="P11">
         <v>184407434331.9973</v>
       </c>
     </row>
@@ -831,15 +1006,30 @@
       <c r="H12">
         <v>47.943000793457</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12">
+        <v>7.025217658922278</v>
+      </c>
+      <c r="J12">
+        <v>33296767060.1004</v>
+      </c>
+      <c r="K12">
+        <v>16.9670838312646</v>
+      </c>
+      <c r="L12">
+        <v>13366815221.81522</v>
+      </c>
+      <c r="M12">
+        <v>47.943000793457</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>0.74940720495510904</t>
         </is>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>56240362230.36223</v>
       </c>
     </row>
@@ -870,15 +1060,30 @@
       <c r="H13">
         <v>68.3669967651367</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13">
+        <v>4.411415589258137</v>
+      </c>
+      <c r="J13">
+        <v>17521276595.74468</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>15531888297.87234</v>
+      </c>
+      <c r="M13">
+        <v>68.3669967651367</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>0.71396666666666664</t>
         </is>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>27723712765.95745</v>
       </c>
     </row>
@@ -909,15 +1114,30 @@
       <c r="H14">
         <v>33.5130004882813</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14">
+        <v>5.109924075528354</v>
+      </c>
+      <c r="J14">
+        <v>10046036494.36983</v>
+      </c>
+      <c r="K14">
+        <v>41.7454606859552</v>
+      </c>
+      <c r="L14">
+        <v>4090754307.420974</v>
+      </c>
+      <c r="M14">
+        <v>33.5130004882813</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>0.65531820777777772</t>
         </is>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>18659611992.94532</v>
       </c>
     </row>
@@ -948,15 +1168,30 @@
       <c r="H15">
         <v>60.4379997253418</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15">
+        <v>6.454575878299596</v>
+      </c>
+      <c r="J15">
+        <v>35979901414.32952</v>
+      </c>
+      <c r="K15">
+        <v>6.63418114779464</v>
+      </c>
+      <c r="L15">
+        <v>27883308094.7692</v>
+      </c>
+      <c r="M15">
+        <v>60.4379997253418</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>0.81998416444444444</t>
         </is>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>76400774143.3539</v>
       </c>
     </row>
@@ -987,15 +1222,30 @@
       <c r="H16">
         <v>70.536003112793</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16">
+        <v>8.44638698684366</v>
+      </c>
+      <c r="J16">
+        <v>12418374384.94935</v>
+      </c>
+      <c r="K16">
+        <v>16.8179622115658</v>
+      </c>
+      <c r="L16">
+        <v>9115361939.218523</v>
+      </c>
+      <c r="M16">
+        <v>70.536003112793</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>0.67349999999999999</t>
         </is>
       </c>
-      <c r="J16">
+      <c r="O16">
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="P16">
         <v>31299897333.55557</v>
       </c>
     </row>
@@ -1026,15 +1276,30 @@
       <c r="H17">
         <v>62.6829986572266</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17">
+        <v>10.90406991805919</v>
+      </c>
+      <c r="J17">
+        <v>1504320441988.95</v>
+      </c>
+      <c r="K17">
+        <v>41.8109308549229</v>
+      </c>
+      <c r="L17">
+        <v>502802379940.5015</v>
+      </c>
+      <c r="M17">
+        <v>62.6829986572266</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>0.66130562900764922</t>
         </is>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>2407378240543.986</v>
       </c>
     </row>
@@ -1065,15 +1330,30 @@
       <c r="H18">
         <v>62.6370010375977</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18">
+        <v>9.285115323562497</v>
+      </c>
+      <c r="J18">
+        <v>5374901341.752171</v>
+      </c>
+      <c r="K18">
+        <v>0.0139761924498174</v>
+      </c>
+      <c r="L18">
+        <v>11600631412.78611</v>
+      </c>
+      <c r="M18">
+        <v>62.6370010375977</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>0.69211111111111112</t>
         </is>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>17082872928.1768</v>
       </c>
     </row>
@@ -1104,15 +1384,30 @@
       <c r="H19">
         <v>64.0309982299805</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19">
+        <v>13.38286539054236</v>
+      </c>
+      <c r="J19">
+        <v>8486226254.834863</v>
+      </c>
+      <c r="K19">
+        <v>29.1684971808001</v>
+      </c>
+      <c r="L19">
+        <v>5579575060.809315</v>
+      </c>
+      <c r="M19">
+        <v>64.0309982299805</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>0.61899999999999999</t>
         </is>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>15913669550.78896</v>
       </c>
     </row>
@@ -1143,15 +1438,30 @@
       <c r="H20">
         <v>65.5920028686523</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20">
+        <v>20.00954460539186</v>
+      </c>
+      <c r="J20">
+        <v>500137743943.6081</v>
+      </c>
+      <c r="K20">
+        <v>23.4522294543551</v>
+      </c>
+      <c r="L20">
+        <v>174497838510.3676</v>
+      </c>
+      <c r="M20">
+        <v>65.5920028686523</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>0.84408920885422867</t>
         </is>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>709274809461.4583</v>
       </c>
     </row>
@@ -1182,15 +1492,30 @@
       <c r="H21">
         <v>58.3230018615723</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21">
+        <v>11.26138475787098</v>
+      </c>
+      <c r="J21">
+        <v>148028025461.8144</v>
+      </c>
+      <c r="K21">
+        <v>26.4152789686805</v>
+      </c>
+      <c r="L21">
+        <v>80496193523.7106</v>
+      </c>
+      <c r="M21">
+        <v>58.3230018615723</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>0.74567525651719846</t>
         </is>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>251692857786.1734</v>
       </c>
     </row>
@@ -1221,15 +1546,30 @@
       <c r="H22">
         <v>67.6999969482422</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I22">
+        <v>6.008730690569246</v>
+      </c>
+      <c r="J22">
+        <v>5014465930917.733</v>
+      </c>
+      <c r="K22">
+        <v>17.099459693837</v>
+      </c>
+      <c r="L22">
+        <v>4518211413875.054</v>
+      </c>
+      <c r="M22">
+        <v>67.6999969482422</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>0.60966666666666669</t>
         </is>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
         <v>10495671777842.89</v>
       </c>
     </row>
@@ -1260,15 +1600,30 @@
       <c r="H23">
         <v>72.8190002441406</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23">
+        <v>8.946793058237784</v>
+      </c>
+      <c r="J23">
+        <v>14073387741.06773</v>
+      </c>
+      <c r="K23">
+        <v>77.3882169287856</v>
+      </c>
+      <c r="L23">
+        <v>8858278976.163748</v>
+      </c>
+      <c r="M23">
+        <v>72.8190002441406</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>0.48578888888888894</t>
         </is>
       </c>
-      <c r="J23">
+      <c r="O23">
         <v>0</v>
       </c>
-      <c r="K23">
+      <c r="P23">
         <v>31761332019.05282</v>
       </c>
     </row>
@@ -1299,15 +1654,30 @@
       <c r="H24">
         <v>68.4700012207031</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I24">
+        <v>1.962384744782268</v>
+      </c>
+      <c r="J24">
+        <v>13261572745.32178</v>
+      </c>
+      <c r="K24">
+        <v>92.8713124189544</v>
+      </c>
+      <c r="L24">
+        <v>11418202496.09596</v>
+      </c>
+      <c r="M24">
+        <v>68.4700012207031</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>0.37177777777777776</t>
         </is>
       </c>
-      <c r="J24">
+      <c r="O24">
         <v>0</v>
       </c>
-      <c r="K24">
+      <c r="P24">
         <v>30987419332.5546</v>
       </c>
     </row>
@@ -1338,15 +1708,30 @@
       <c r="H25">
         <v>62.8139991760254</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I25">
+        <v>10.81264672244209</v>
+      </c>
+      <c r="J25">
+        <v>3650505062.953187</v>
+      </c>
+      <c r="K25">
+        <v>62.3685090980879</v>
+      </c>
+      <c r="L25">
+        <v>9841555288.168846</v>
+      </c>
+      <c r="M25">
+        <v>62.8139991760254</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>0.51133333333333331</t>
         </is>
       </c>
-      <c r="J25">
+      <c r="O25">
         <v>0</v>
       </c>
-      <c r="K25">
+      <c r="P25">
         <v>11738937539.92092</v>
       </c>
     </row>
@@ -1377,15 +1762,30 @@
       <c r="H26">
         <v>62.2599983215332</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I26">
+        <v>18.82414837532147</v>
+      </c>
+      <c r="J26">
+        <v>201205826211.7584</v>
+      </c>
+      <c r="K26">
+        <v>24.5170199022736</v>
+      </c>
+      <c r="L26">
+        <v>123724823045.0784</v>
+      </c>
+      <c r="M26">
+        <v>62.2599983215332</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>0.60222241083780936</t>
         </is>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
         <v>365835343319.1243</v>
       </c>
     </row>
@@ -1416,15 +1816,30 @@
       <c r="H27">
         <v>55.6510009765625</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I27">
+        <v>14.70265500029459</v>
+      </c>
+      <c r="J27">
+        <v>33584403360.32362</v>
+      </c>
+      <c r="K27">
+        <v>37.8689097634167</v>
+      </c>
+      <c r="L27">
+        <v>10246393293.39653</v>
+      </c>
+      <c r="M27">
+        <v>55.6510009765625</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>0.65392160415649403</t>
         </is>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
         <v>48561915005.1308</v>
       </c>
     </row>
@@ -1455,15 +1870,30 @@
       <c r="H28">
         <v>53.4379997253418</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I28">
+        <v>13.17175678240381</v>
+      </c>
+      <c r="J28">
+        <v>17827517579.93897</v>
+      </c>
+      <c r="K28">
+        <v>9.38913818712321</v>
+      </c>
+      <c r="L28">
+        <v>2191720843.83707</v>
+      </c>
+      <c r="M28">
+        <v>53.4379997253418</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>0.77619837654961565</t>
         </is>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
         <v>22453682366.98952</v>
       </c>
     </row>
@@ -1494,15 +1924,30 @@
       <c r="H29">
         <v>55.7999992370605</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I29">
+        <v>8.264801365036362</v>
+      </c>
+      <c r="J29">
+        <v>111505961700.5901</v>
+      </c>
+      <c r="K29">
+        <v>12.7526694916312</v>
+      </c>
+      <c r="L29">
+        <v>71169167770.68529</v>
+      </c>
+      <c r="M29">
+        <v>55.7999992370605</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>0.86622222222222223</t>
         </is>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
         <v>193774683849.2111</v>
       </c>
     </row>
@@ -1533,15 +1978,30 @@
       <c r="H30">
         <v>57.3619995117188</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I30">
+        <v>12.45102078555789</v>
+      </c>
+      <c r="J30">
+        <v>2398061949645.139</v>
+      </c>
+      <c r="K30">
+        <v>13.3788776513884</v>
+      </c>
+      <c r="L30">
+        <v>1065816956727.344</v>
+      </c>
+      <c r="M30">
+        <v>57.3619995117188</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>0.88437195231119781</t>
         </is>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
         <v>3965531527899.799</v>
       </c>
     </row>
@@ -1572,15 +2032,30 @@
       <c r="H31">
         <v>58.0519981384277</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I31">
+        <v>16.64207092413301</v>
+      </c>
+      <c r="J31">
+        <v>232021333460.0353</v>
+      </c>
+      <c r="K31">
+        <v>30.2199272420558</v>
+      </c>
+      <c r="L31">
+        <v>68757112143.20497</v>
+      </c>
+      <c r="M31">
+        <v>58.0519981384277</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>0.87282605528397295</t>
         </is>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
         <v>365069428771.6629</v>
       </c>
     </row>
@@ -1611,15 +2086,30 @@
       <c r="H32">
         <v>55.8320007324219</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I32">
+        <v>18.12884465775038</v>
+      </c>
+      <c r="J32">
+        <v>40348063630.72826</v>
+      </c>
+      <c r="K32">
+        <v>18.3784571017074</v>
+      </c>
+      <c r="L32">
+        <v>17391682112.68253</v>
+      </c>
+      <c r="M32">
+        <v>55.8320007324219</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>0.59017054239908862</t>
         </is>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
         <v>61983632303.24181</v>
       </c>
     </row>
@@ -1650,15 +2140,30 @@
       <c r="H33">
         <v>38.9459991455078</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I33">
+        <v>10.75079191522808</v>
+      </c>
+      <c r="J33">
+        <v>86109869609.94801</v>
+      </c>
+      <c r="K33">
+        <v>0.0687754386656932</v>
+      </c>
+      <c r="L33">
+        <v>90474025454.5229</v>
+      </c>
+      <c r="M33">
+        <v>38.9459991455078</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>0.64258888888888888</t>
         </is>
       </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
         <v>209164336315.9136</v>
       </c>
     </row>
@@ -1689,15 +2194,30 @@
       <c r="H34">
         <v>61.6769981384277</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I34">
+        <v>12.90367773047049</v>
+      </c>
+      <c r="J34">
+        <v>50522601000</v>
+      </c>
+      <c r="K34">
+        <v>12.2181400449995</v>
+      </c>
+      <c r="L34">
+        <v>37565013000</v>
+      </c>
+      <c r="M34">
+        <v>61.6769981384277</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>0.59383750000000002</t>
         </is>
       </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
         <v>100739446800</v>
       </c>
     </row>
@@ -1728,15 +2248,30 @@
       <c r="H35">
         <v>42.773998260498</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I35">
+        <v>12.76992906106108</v>
+      </c>
+      <c r="J35">
+        <v>156743598938.5355</v>
+      </c>
+      <c r="K35">
+        <v>6.41256075429046</v>
+      </c>
+      <c r="L35">
+        <v>121876798393.4591</v>
+      </c>
+      <c r="M35">
+        <v>42.773998260498</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>0.57344444444444442</t>
         </is>
       </c>
-      <c r="J35">
+      <c r="O35">
         <v>0</v>
       </c>
-      <c r="K35">
+      <c r="P35">
         <v>304487886394.6066</v>
       </c>
     </row>
@@ -1767,15 +2302,30 @@
       <c r="H36">
         <v>44.3320007324219</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I36">
+        <v>13.65641520855246</v>
+      </c>
+      <c r="J36">
+        <v>929664886762.7664</v>
+      </c>
+      <c r="K36">
+        <v>17.3517364796672</v>
+      </c>
+      <c r="L36">
+        <v>291220709607.7314</v>
+      </c>
+      <c r="M36">
+        <v>44.3320007324219</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>0.79439697265625009</t>
         </is>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
         <v>1371431400690.727</v>
       </c>
     </row>
@@ -1806,15 +2356,30 @@
       <c r="H37">
         <v>57.2680015563965</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I37">
+        <v>6.215035153674235</v>
+      </c>
+      <c r="J37">
+        <v>15463946781.26292</v>
+      </c>
+      <c r="K37">
+        <v>25.2491437619919</v>
+      </c>
+      <c r="L37">
+        <v>6531531832.495505</v>
+      </c>
+      <c r="M37">
+        <v>57.2680015563965</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>0.85853333333333337</t>
         </is>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
         <v>25505925476.41841</v>
       </c>
     </row>
@@ -1845,15 +2410,30 @@
       <c r="H38">
         <v>78.80999755859381</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I38">
+        <v>3.020424155746991</v>
+      </c>
+      <c r="J38">
+        <v>22184834811.69267</v>
+      </c>
+      <c r="K38">
+        <v>92.7190417907475</v>
+      </c>
+      <c r="L38">
+        <v>7491703730.498239</v>
+      </c>
+      <c r="M38">
+        <v>78.80999755859381</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>0.3165219730801051</t>
         </is>
       </c>
-      <c r="J38">
+      <c r="O38">
         <v>0</v>
       </c>
-      <c r="K38">
+      <c r="P38">
         <v>55459432981.04345</v>
       </c>
     </row>
@@ -1884,15 +2464,30 @@
       <c r="H39">
         <v>53.7210006713867</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I39">
+        <v>6.681049413262137</v>
+      </c>
+      <c r="J39">
+        <v>165389301414.0654</v>
+      </c>
+      <c r="K39">
+        <v>41.1912614309843</v>
+      </c>
+      <c r="L39">
+        <v>62879218918.95666</v>
+      </c>
+      <c r="M39">
+        <v>53.7210006713867</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>0.81508888888888886</t>
         </is>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
         <v>275087627317.6839</v>
       </c>
     </row>
@@ -1923,15 +2518,30 @@
       <c r="H40">
         <v>49.7200012207031</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I40">
+        <v>10.99548627910326</v>
+      </c>
+      <c r="J40">
+        <v>2002309215321.079</v>
+      </c>
+      <c r="K40">
+        <v>13.1326380260299</v>
+      </c>
+      <c r="L40">
+        <v>497896638306.6644</v>
+      </c>
+      <c r="M40">
+        <v>49.7200012207031</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>0.81554941601223441</t>
         </is>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
         <v>2876718295240.433</v>
       </c>
     </row>
@@ -1962,15 +2572,30 @@
       <c r="H41">
         <v>38.6450004577637</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I41">
+        <v>6.493040405464251</v>
+      </c>
+      <c r="J41">
+        <v>6426069712.690757</v>
+      </c>
+      <c r="K41">
+        <v>81.04620400257819</v>
+      </c>
+      <c r="L41">
+        <v>9584738552.228394</v>
+      </c>
+      <c r="M41">
+        <v>38.6450004577637</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>0.58933333333333326</t>
         </is>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
         <v>17233260805.59853</v>
       </c>
     </row>
@@ -2001,15 +2626,30 @@
       <c r="H42">
         <v>58.882999420166</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="I42">
+        <v>14.66023870462033</v>
+      </c>
+      <c r="J42">
+        <v>2116074226306.596</v>
+      </c>
+      <c r="K42">
+        <v>7.29444531478333</v>
+      </c>
+      <c r="L42">
+        <v>538524017137.5792</v>
+      </c>
+      <c r="M42">
+        <v>58.882999420166</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>0.86026014506022219</t>
         </is>
       </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
         <v>2959727353164.456</v>
       </c>
     </row>
@@ -2040,15 +2680,30 @@
       <c r="H43">
         <v>58.5789985656738</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I43">
+        <v>7.824566128315838</v>
+      </c>
+      <c r="J43">
+        <v>9487087840.516508</v>
+      </c>
+      <c r="K43">
+        <v>31.8929795859145</v>
+      </c>
+      <c r="L43">
+        <v>3407281871.212551</v>
+      </c>
+      <c r="M43">
+        <v>58.5789985656738</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>0.77033333333333331</t>
         </is>
       </c>
-      <c r="J43">
+      <c r="O43">
         <v>0</v>
       </c>
-      <c r="K43">
+      <c r="P43">
         <v>16357554227.78502</v>
       </c>
     </row>
@@ -2079,15 +2734,30 @@
       <c r="H44">
         <v>72.8710021972656</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I44">
+        <v>12.16281559917769</v>
+      </c>
+      <c r="J44">
+        <v>17680639228.64639</v>
+      </c>
+      <c r="K44">
+        <v>45.218180840838</v>
+      </c>
+      <c r="L44">
+        <v>9800944056.420565</v>
+      </c>
+      <c r="M44">
+        <v>72.8710021972656</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>0.55274444444444437</t>
         </is>
       </c>
-      <c r="J44">
+      <c r="O44">
         <v>0</v>
       </c>
-      <c r="K44">
+      <c r="P44">
         <v>36899140301.86366</v>
       </c>
     </row>
@@ -2118,15 +2788,30 @@
       <c r="H45">
         <v>38.0979995727539</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I45">
+        <v>12.44436049816443</v>
+      </c>
+      <c r="J45">
+        <v>167560946034.9663</v>
+      </c>
+      <c r="K45">
+        <v>16.0857931499591</v>
+      </c>
+      <c r="L45">
+        <v>33232732035.16909</v>
+      </c>
+      <c r="M45">
+        <v>38.0979995727539</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>0.79698855082193998</t>
         </is>
       </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
         <v>236599180334.1602</v>
       </c>
     </row>
@@ -2157,15 +2842,30 @@
       <c r="H46">
         <v>59.4739990234375</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I46">
+        <v>9.070138625635192</v>
+      </c>
+      <c r="J46">
+        <v>34772388970.79744</v>
+      </c>
+      <c r="K46">
+        <v>59.9032015277055</v>
+      </c>
+      <c r="L46">
+        <v>16052533690.2822</v>
+      </c>
+      <c r="M46">
+        <v>59.4739990234375</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>0.48387988938225657</t>
         </is>
       </c>
-      <c r="J46">
+      <c r="O46">
         <v>0</v>
       </c>
-      <c r="K46">
+      <c r="P46">
         <v>57132823918.16042</v>
       </c>
     </row>
@@ -2196,15 +2896,30 @@
       <c r="H47">
         <v>58.6940002441406</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I47">
+        <v>28.22057411103687</v>
+      </c>
+      <c r="J47">
+        <v>263699204291.923</v>
+      </c>
+      <c r="K47">
+        <v>1.79258510281997</v>
+      </c>
+      <c r="L47">
+        <v>20598908964.28986</v>
+      </c>
+      <c r="M47">
+        <v>58.6940002441406</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>0.76736666666666675</t>
         </is>
       </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
         <v>297469983621.5679</v>
       </c>
     </row>
@@ -2235,15 +2950,30 @@
       <c r="H48">
         <v>61.9020004272461</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I48">
+        <v>7.332652577869291</v>
+      </c>
+      <c r="J48">
+        <v>10762257396.30586</v>
+      </c>
+      <c r="K48">
+        <v>54.0409434401299</v>
+      </c>
+      <c r="L48">
+        <v>4842480262.739782</v>
+      </c>
+      <c r="M48">
+        <v>61.9020004272461</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>0.5049631489647759</t>
         </is>
       </c>
-      <c r="J48">
+      <c r="O48">
         <v>0</v>
       </c>
-      <c r="K48">
+      <c r="P48">
         <v>18168819901.40506</v>
       </c>
     </row>
@@ -2274,15 +3004,30 @@
       <c r="H49">
         <v>43.3600006103516</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I49">
+        <v>11.58207571779157</v>
+      </c>
+      <c r="J49">
+        <v>33389340245.64212</v>
+      </c>
+      <c r="K49">
+        <v>33.6466370282194</v>
+      </c>
+      <c r="L49">
+        <v>12840440189.97251</v>
+      </c>
+      <c r="M49">
+        <v>43.3600006103516</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>0.77033447689480106</t>
         </is>
       </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
         <v>55932206621.20316</v>
       </c>
     </row>
@@ -2313,15 +3058,30 @@
       <c r="H50">
         <v>49.7299995422363</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I50">
+        <v>11.01505511492874</v>
+      </c>
+      <c r="J50">
+        <v>75708515989.42387</v>
+      </c>
+      <c r="K50">
+        <v>10.3606376167421</v>
+      </c>
+      <c r="L50">
+        <v>36157139888.65079</v>
+      </c>
+      <c r="M50">
+        <v>49.7299995422363</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>0.80489376800355406</t>
         </is>
       </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
         <v>133455449588.3519</v>
       </c>
     </row>
@@ -2352,15 +3112,30 @@
       <c r="H51">
         <v>63.382999420166</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I51">
+        <v>11.92112419459841</v>
+      </c>
+      <c r="J51">
+        <v>376299619712.63</v>
+      </c>
+      <c r="K51">
+        <v>38.0661393752312</v>
+      </c>
+      <c r="L51">
+        <v>373503858292.0137</v>
+      </c>
+      <c r="M51">
+        <v>63.382999420166</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>0.60313604142930777</t>
         </is>
       </c>
-      <c r="J51">
+      <c r="O51">
         <v>0</v>
       </c>
-      <c r="K51">
+      <c r="P51">
         <v>860946502042.8248</v>
       </c>
     </row>
@@ -2391,15 +3166,30 @@
       <c r="H52">
         <v>51.773998260498</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I52">
+        <v>8.907197885999363</v>
+      </c>
+      <c r="J52">
+        <v>972726159786.7987</v>
+      </c>
+      <c r="K52">
+        <v>36.5361723506868</v>
+      </c>
+      <c r="L52">
+        <v>566737771345.3002</v>
+      </c>
+      <c r="M52">
+        <v>51.773998260498</v>
+      </c>
+      <c r="N52" t="inlineStr">
         <is>
           <t>0.47266666666666662</t>
         </is>
       </c>
-      <c r="J52">
+      <c r="O52">
         <v>0</v>
       </c>
-      <c r="K52">
+      <c r="P52">
         <v>2011281369753.122</v>
       </c>
     </row>
@@ -2430,15 +3220,30 @@
       <c r="H53">
         <v>53.5750007629395</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I53">
+        <v>18.53668772909164</v>
+      </c>
+      <c r="J53">
+        <v>169256929279.0187</v>
+      </c>
+      <c r="K53">
+        <v>8.4717240213997</v>
+      </c>
+      <c r="L53">
+        <v>62862303063.75945</v>
+      </c>
+      <c r="M53">
+        <v>53.5750007629395</v>
+      </c>
+      <c r="N53" t="inlineStr">
         <is>
           <t>0.88706666666666667</t>
         </is>
       </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
         <v>218233901560.6212</v>
       </c>
     </row>
@@ -2469,15 +3274,30 @@
       <c r="H54">
         <v>39.6100006103516</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I54">
+        <v>5.731495457105259</v>
+      </c>
+      <c r="J54">
+        <v>218443465236.2953</v>
+      </c>
+      <c r="K54">
+        <v>0.937924132908299</v>
+      </c>
+      <c r="L54">
+        <v>159263106024.1043</v>
+      </c>
+      <c r="M54">
+        <v>39.6100006103516</v>
+      </c>
+      <c r="N54" t="inlineStr">
         <is>
           <t>0.68345555555555548</t>
         </is>
       </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
         <v>426269068422.8813</v>
       </c>
     </row>
@@ -2508,15 +3328,30 @@
       <c r="H55">
         <v>35.9790000915527</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I55">
+        <v>10.9525442498999</v>
+      </c>
+      <c r="J55">
+        <v>90487451114.92281</v>
+      </c>
+      <c r="K55">
+        <v>0.9121046982250171</v>
+      </c>
+      <c r="L55">
+        <v>132667842195.5403</v>
+      </c>
+      <c r="M55">
+        <v>35.9790000915527</v>
+      </c>
+      <c r="N55" t="inlineStr">
         <is>
           <t>0.46655555555555556</t>
         </is>
       </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
         <v>233548370497.4271</v>
       </c>
     </row>
@@ -2547,15 +3382,30 @@
       <c r="H56">
         <v>70.6470031738281</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I56">
+        <v>2.472101300911588</v>
+      </c>
+      <c r="J56">
+        <v>10404800433.65047</v>
+      </c>
+      <c r="K56">
+        <v>76.4229453172107</v>
+      </c>
+      <c r="L56">
+        <v>3415312511.914987</v>
+      </c>
+      <c r="M56">
+        <v>70.6470031738281</v>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>0.84686666666666666</t>
         </is>
       </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
         <v>16897076236.12882</v>
       </c>
     </row>
@@ -2586,15 +3436,30 @@
       <c r="H57">
         <v>42.3359985351563</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I57">
+        <v>15.03181297126078</v>
+      </c>
+      <c r="J57">
+        <v>1440188275228.843</v>
+      </c>
+      <c r="K57">
+        <v>17.0903589998266</v>
+      </c>
+      <c r="L57">
+        <v>452241517951.7915</v>
+      </c>
+      <c r="M57">
+        <v>42.3359985351563</v>
+      </c>
+      <c r="N57" t="inlineStr">
         <is>
           <t>0.78950579932692277</t>
         </is>
       </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
         <v>2151814064348.153</v>
       </c>
     </row>
@@ -2625,15 +3490,30 @@
       <c r="H58">
         <v>55.8950004577637</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I58">
+        <v>8.644599888573202</v>
+      </c>
+      <c r="J58">
+        <v>8397045103.191522</v>
+      </c>
+      <c r="K58">
+        <v>15.9884041757703</v>
+      </c>
+      <c r="L58">
+        <v>2541526756.779902</v>
+      </c>
+      <c r="M58">
+        <v>55.8950004577637</v>
+      </c>
+      <c r="N58" t="inlineStr">
         <is>
           <t>0.66835555555555559</t>
         </is>
       </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
         <v>13599147634.44267</v>
       </c>
     </row>
@@ -2664,15 +3544,30 @@
       <c r="H59">
         <v>35.1549987792969</v>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I59">
+        <v>9.781738009456511</v>
+      </c>
+      <c r="J59">
+        <v>20924965633.80282</v>
+      </c>
+      <c r="K59">
+        <v>3.13049940961672</v>
+      </c>
+      <c r="L59">
+        <v>9385597887.323944</v>
+      </c>
+      <c r="M59">
+        <v>35.1549987792969</v>
+      </c>
+      <c r="N59" t="inlineStr">
         <is>
           <t>0.69972509808010508</t>
         </is>
       </c>
-      <c r="J59">
+      <c r="O59">
         <v>0</v>
       </c>
-      <c r="K59">
+      <c r="P59">
         <v>35410165211.26761</v>
       </c>
     </row>
@@ -2703,15 +3598,30 @@
       <c r="H60">
         <v>57.3880004882813</v>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="I60">
+        <v>11.34819846679008</v>
+      </c>
+      <c r="J60">
+        <v>3413763249780.532</v>
+      </c>
+      <c r="K60">
+        <v>5.52698148992926</v>
+      </c>
+      <c r="L60">
+        <v>1340722955993.292</v>
+      </c>
+      <c r="M60">
+        <v>57.3880004882813</v>
+      </c>
+      <c r="N60" t="inlineStr">
         <is>
           <t>0.80800000000000005</t>
         </is>
       </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
         <v>5024116287795.757</v>
       </c>
     </row>
@@ -2742,15 +3652,30 @@
       <c r="H61">
         <v>67.2620010375977</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I61">
+        <v>5.602891897125324</v>
+      </c>
+      <c r="J61">
+        <v>121421192499.4294</v>
+      </c>
+      <c r="K61">
+        <v>1.36259931747161</v>
+      </c>
+      <c r="L61">
+        <v>73530840435.13176</v>
+      </c>
+      <c r="M61">
+        <v>67.2620010375977</v>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>0.76226666666666665</t>
         </is>
       </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
         <v>198776951722.6523</v>
       </c>
     </row>
@@ -2781,15 +3706,30 @@
       <c r="H62">
         <v>59.0040016174316</v>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="I62">
+        <v>5.648378548765438</v>
+      </c>
+      <c r="J62">
+        <v>27949402994.92051</v>
+      </c>
+      <c r="K62">
+        <v>75.51816658000919</v>
+      </c>
+      <c r="L62">
+        <v>10717623080.40518</v>
+      </c>
+      <c r="M62">
+        <v>59.0040016174316</v>
+      </c>
+      <c r="N62" t="inlineStr">
         <is>
           <t>0.51455555555555554</t>
         </is>
       </c>
-      <c r="J62">
+      <c r="O62">
         <v>0</v>
       </c>
-      <c r="K62">
+      <c r="P62">
         <v>60577101118.94379</v>
       </c>
     </row>
@@ -2820,15 +3760,30 @@
       <c r="H63">
         <v>80.734001159668</v>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="I63">
+        <v>7.89357623715533</v>
+      </c>
+      <c r="J63">
+        <v>6496632014.358341</v>
+      </c>
+      <c r="K63">
+        <v>67.95334783641169</v>
+      </c>
+      <c r="L63">
+        <v>4277014317.174192</v>
+      </c>
+      <c r="M63">
+        <v>80.734001159668</v>
+      </c>
+      <c r="N63" t="inlineStr">
         <is>
           <t>0.49517777777777783</t>
         </is>
       </c>
-      <c r="J63">
+      <c r="O63">
         <v>0</v>
       </c>
-      <c r="K63">
+      <c r="P63">
         <v>15825602128.37152</v>
       </c>
     </row>
@@ -2859,15 +3814,30 @@
       <c r="H64">
         <v>58.640998840332</v>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I64">
+        <v>6.358441112961442</v>
+      </c>
+      <c r="J64">
+        <v>767003007139.4871</v>
+      </c>
+      <c r="K64">
+        <v>2.83809759497136</v>
+      </c>
+      <c r="L64">
+        <v>489734185736.0692</v>
+      </c>
+      <c r="M64">
+        <v>58.640998840332</v>
+      </c>
+      <c r="N64" t="inlineStr">
         <is>
           <t>0.86450963550143889</t>
         </is>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
         <v>1415782904738.714</v>
       </c>
     </row>
@@ -2898,15 +3868,30 @@
       <c r="H65">
         <v>66.5439987182617</v>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="I65">
+        <v>8.330406464755164</v>
+      </c>
+      <c r="J65">
+        <v>61865425158.11666</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>114388966971.1876</v>
+      </c>
+      <c r="M65">
+        <v>66.5439987182617</v>
+      </c>
+      <c r="N65" t="inlineStr">
         <is>
           <t>0.64578749868604857</t>
         </is>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
         <v>177381856289.5291</v>
       </c>
     </row>
@@ -2937,15 +3922,30 @@
       <c r="H66">
         <v>43.9980010986328</v>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I66">
+        <v>10.62692271181476</v>
+      </c>
+      <c r="J66">
+        <v>29913692943.68159</v>
+      </c>
+      <c r="K66">
+        <v>3.2035444681985</v>
+      </c>
+      <c r="L66">
+        <v>8892356364.245438</v>
+      </c>
+      <c r="M66">
+        <v>43.9980010986328</v>
+      </c>
+      <c r="N66" t="inlineStr">
         <is>
           <t>0.63057612360708126</t>
         </is>
       </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
         <v>45214945273.63184</v>
       </c>
     </row>
@@ -2976,15 +3976,30 @@
       <c r="H67">
         <v>49.6430015563965</v>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="I67">
+        <v>21.75568540839643</v>
+      </c>
+      <c r="J67">
+        <v>45154754692.50111</v>
+      </c>
+      <c r="K67">
+        <v>57.5851743334439</v>
+      </c>
+      <c r="L67">
+        <v>22456291784.83924</v>
+      </c>
+      <c r="M67">
+        <v>49.6430015563965</v>
+      </c>
+      <c r="N67" t="inlineStr">
         <is>
           <t>0.73777777777777787</t>
         </is>
       </c>
-      <c r="J67">
+      <c r="O67">
         <v>0</v>
       </c>
-      <c r="K67">
+      <c r="P67">
         <v>78212640935.87318</v>
       </c>
     </row>
@@ -3015,15 +4030,30 @@
       <c r="H68">
         <v>52.851001739502</v>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="I68">
+        <v>11.80393227356453</v>
+      </c>
+      <c r="J68">
+        <v>28842232299.92909</v>
+      </c>
+      <c r="K68">
+        <v>28.072165590233</v>
+      </c>
+      <c r="L68">
+        <v>13340245010.8253</v>
+      </c>
+      <c r="M68">
+        <v>52.851001739502</v>
+      </c>
+      <c r="N68" t="inlineStr">
         <is>
           <t>0.87665989134046884</t>
         </is>
       </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68">
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
         <v>47915324320.30933</v>
       </c>
     </row>
@@ -3054,15 +4084,30 @@
       <c r="H69">
         <v>55.5550003051758</v>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="I69">
+        <v>14.84188428444811</v>
+      </c>
+      <c r="J69">
+        <v>51295275774.98268</v>
+      </c>
+      <c r="K69">
+        <v>6.96628859153078</v>
+      </c>
+      <c r="L69">
+        <v>7629513724.018509</v>
+      </c>
+      <c r="M69">
+        <v>55.5550003051758</v>
+      </c>
+      <c r="N69" t="inlineStr">
         <is>
           <t>0.76211104398741669</t>
         </is>
       </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
         <v>43806704956.46735</v>
       </c>
     </row>
@@ -3093,15 +4138,30 @@
       <c r="H70">
         <v>53.6459999084473</v>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I70">
+        <v>10.98271498001039</v>
+      </c>
+      <c r="J70">
+        <v>20357702363.08281</v>
+      </c>
+      <c r="K70">
+        <v>40.2360612470879</v>
+      </c>
+      <c r="L70">
+        <v>6449987725.288631</v>
+      </c>
+      <c r="M70">
+        <v>53.6459999084473</v>
+      </c>
+      <c r="N70" t="inlineStr">
         <is>
           <t>0.81318784414329781</t>
         </is>
       </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
         <v>31280564598.81352</v>
       </c>
     </row>
@@ -3132,15 +4192,30 @@
       <c r="H71">
         <v>44.2039985656738</v>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I71">
+        <v>13.66838507471416</v>
+      </c>
+      <c r="J71">
+        <v>56759216302.05917</v>
+      </c>
+      <c r="K71">
+        <v>11.7779580407644</v>
+      </c>
+      <c r="L71">
+        <v>29036674874.79628</v>
+      </c>
+      <c r="M71">
+        <v>44.2039985656738</v>
+      </c>
+      <c r="N71" t="inlineStr">
         <is>
           <t>0.46785555555555552</t>
         </is>
       </c>
-      <c r="J71">
+      <c r="O71">
         <v>0</v>
       </c>
-      <c r="K71">
+      <c r="P71">
         <v>107209711763.7962</v>
       </c>
     </row>
@@ -3171,15 +4246,30 @@
       <c r="H72">
         <v>59.1389999389648</v>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I72">
+        <v>11.47399588836942</v>
+      </c>
+      <c r="J72">
+        <v>764515863231.1454</v>
+      </c>
+      <c r="K72">
+        <v>9.798903321896139</v>
+      </c>
+      <c r="L72">
+        <v>422398193868.723</v>
+      </c>
+      <c r="M72">
+        <v>59.1389999389648</v>
+      </c>
+      <c r="N72" t="inlineStr">
         <is>
           <t>0.6378331078423396</t>
         </is>
       </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
         <v>1288131102651.871</v>
       </c>
     </row>
@@ -3210,15 +4300,30 @@
       <c r="H73">
         <v>49.2280006408691</v>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I73">
+        <v>18.68837606249214</v>
+      </c>
+      <c r="J73">
+        <v>8159812418.041355</v>
+      </c>
+      <c r="K73">
+        <v>3.9521731718218</v>
+      </c>
+      <c r="L73">
+        <v>1529054257.560077</v>
+      </c>
+      <c r="M73">
+        <v>49.2280006408691</v>
+      </c>
+      <c r="N73" t="inlineStr">
         <is>
           <t>0.73253801133897578</t>
         </is>
       </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
         <v>10674616485.3425</v>
       </c>
     </row>
@@ -3249,15 +4354,30 @@
       <c r="H74">
         <v>77.51999664306641</v>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="I74">
+        <v>13.5120490968107</v>
+      </c>
+      <c r="J74">
+        <v>24709010980.75183</v>
+      </c>
+      <c r="K74">
+        <v>68.521696056376</v>
+      </c>
+      <c r="L74">
+        <v>22616455211.86811</v>
+      </c>
+      <c r="M74">
+        <v>77.51999664306641</v>
+      </c>
+      <c r="N74" t="inlineStr">
         <is>
           <t>0.37055555555555553</t>
         </is>
       </c>
-      <c r="J74">
+      <c r="O74">
         <v>0</v>
       </c>
-      <c r="K74">
+      <c r="P74">
         <v>62851996076.49429</v>
       </c>
     </row>
@@ -3288,15 +4408,30 @@
       <c r="H75">
         <v>40.1590003967285</v>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="I75">
+        <v>10.01781003022142</v>
+      </c>
+      <c r="J75">
+        <v>2686426960.329043</v>
+      </c>
+      <c r="K75">
+        <v>45.9818980051695</v>
+      </c>
+      <c r="L75">
+        <v>656241210.0305161</v>
+      </c>
+      <c r="M75">
+        <v>40.1590003967285</v>
+      </c>
+      <c r="N75" t="inlineStr">
         <is>
           <t>0.77355555555555555</t>
         </is>
       </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75">
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
         <v>4648830171.155633</v>
       </c>
     </row>
@@ -3327,15 +4462,30 @@
       <c r="H76">
         <v>57.2610015869141</v>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="I76">
+        <v>6.503297473067612</v>
+      </c>
+      <c r="J76">
+        <v>5602704473.203633</v>
+      </c>
+      <c r="K76">
+        <v>3.96946969899904</v>
+      </c>
+      <c r="L76">
+        <v>3851061563.0219</v>
+      </c>
+      <c r="M76">
+        <v>57.2610015869141</v>
+      </c>
+      <c r="N76" t="inlineStr">
         <is>
           <t>0.69366666666666665</t>
         </is>
       </c>
-      <c r="J76">
+      <c r="O76">
         <v>0</v>
       </c>
-      <c r="K76">
+      <c r="P76">
         <v>11232542839.97585</v>
       </c>
     </row>
@@ -3366,15 +4516,30 @@
       <c r="H77">
         <v>59.0859985351563</v>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="I77">
+        <v>2.660158753802834</v>
+      </c>
+      <c r="J77">
+        <v>8361480829.402253</v>
+      </c>
+      <c r="K77">
+        <v>88.85294877380809</v>
+      </c>
+      <c r="L77">
+        <v>3182851875.596041</v>
+      </c>
+      <c r="M77">
+        <v>59.0859985351563</v>
+      </c>
+      <c r="N77" t="inlineStr">
         <is>
           <t>0.37205555555555558</t>
         </is>
       </c>
-      <c r="J77">
+      <c r="O77">
         <v>0</v>
       </c>
-      <c r="K77">
+      <c r="P77">
         <v>16759214291.90108</v>
       </c>
     </row>
@@ -3405,15 +4570,30 @@
       <c r="H78">
         <v>55.9620018005371</v>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="I78">
+        <v>17.30274784223457</v>
+      </c>
+      <c r="J78">
+        <v>8408378399.561094</v>
+      </c>
+      <c r="K78">
+        <v>10.6400921451124</v>
+      </c>
+      <c r="L78">
+        <v>2539253337.513389</v>
+      </c>
+      <c r="M78">
+        <v>55.9620018005371</v>
+      </c>
+      <c r="N78" t="inlineStr">
         <is>
           <t>0.71809682846069345</t>
         </is>
       </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
         <v>12479165033.83233</v>
       </c>
     </row>
@@ -3444,15 +4624,30 @@
       <c r="H79">
         <v>61.4230003356934</v>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="I79">
+        <v>8.588883173051459</v>
+      </c>
+      <c r="J79">
+        <v>182418955666.2287</v>
+      </c>
+      <c r="K79">
+        <v>4.76977388183345</v>
+      </c>
+      <c r="L79">
+        <v>125652173913.0435</v>
+      </c>
+      <c r="M79">
+        <v>61.4230003356934</v>
+      </c>
+      <c r="N79" t="inlineStr">
         <is>
           <t>0.67054444444444439</t>
         </is>
       </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79">
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
         <v>326700479696.9049</v>
       </c>
     </row>
@@ -3483,15 +4678,30 @@
       <c r="H80">
         <v>41.5009994506836</v>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="I80">
+        <v>13.32029709749196</v>
+      </c>
+      <c r="J80">
+        <v>7248034857.685184</v>
+      </c>
+      <c r="K80">
+        <v>27.617473336439</v>
+      </c>
+      <c r="L80">
+        <v>3773538188.653514</v>
+      </c>
+      <c r="M80">
+        <v>41.5009994506836</v>
+      </c>
+      <c r="N80" t="inlineStr">
         <is>
           <t>0.52018888888888892</t>
         </is>
       </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80">
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
         <v>12827449012.68809</v>
       </c>
     </row>
@@ -3522,15 +4732,30 @@
       <c r="H81">
         <v>63.1139984130859</v>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="I81">
+        <v>6.290531380670456</v>
+      </c>
+      <c r="J81">
+        <v>3018454132.661832</v>
+      </c>
+      <c r="K81">
+        <v>78.1316745654711</v>
+      </c>
+      <c r="L81">
+        <v>1638769050.291759</v>
+      </c>
+      <c r="M81">
+        <v>63.1139984130859</v>
+      </c>
+      <c r="N81" t="inlineStr">
         <is>
           <t>0.19793333333333335</t>
         </is>
       </c>
-      <c r="J81">
+      <c r="O81">
         <v>0</v>
       </c>
-      <c r="K81">
+      <c r="P81">
         <v>8093702658.697652</v>
       </c>
     </row>
@@ -3561,15 +4786,30 @@
       <c r="H82">
         <v>53.4850006103516</v>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="I82">
+        <v>7.826596975472597</v>
+      </c>
+      <c r="J82">
+        <v>307859957452.6056</v>
+      </c>
+      <c r="K82">
+        <v>87.27475790908601</v>
+      </c>
+      <c r="L82">
+        <v>140098653002.2213</v>
+      </c>
+      <c r="M82">
+        <v>53.4850006103516</v>
+      </c>
+      <c r="N82" t="inlineStr">
         <is>
           <t>0.42486000000000002</t>
         </is>
       </c>
-      <c r="J82">
+      <c r="O82">
         <v>0</v>
       </c>
-      <c r="K82">
+      <c r="P82">
         <v>548655750836.0001</v>
       </c>
     </row>
@@ -3600,15 +4840,30 @@
       <c r="H83">
         <v>60.6619987487793</v>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="I83">
+        <v>8.276291696224048</v>
+      </c>
+      <c r="J83">
+        <v>5767927130.964717</v>
+      </c>
+      <c r="K83">
+        <v>51.8422812723536</v>
+      </c>
+      <c r="L83">
+        <v>2981805881.605153</v>
+      </c>
+      <c r="M83">
+        <v>60.6619987487793</v>
+      </c>
+      <c r="N83" t="inlineStr">
         <is>
           <t>0.4839</t>
         </is>
       </c>
-      <c r="J83">
+      <c r="O83">
         <v>0</v>
       </c>
-      <c r="K83">
+      <c r="P83">
         <v>11566738824.44942</v>
       </c>
     </row>
@@ -3639,15 +4894,30 @@
       <c r="H84">
         <v>59.2939987182617</v>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="I84">
+        <v>11.33088732433357</v>
+      </c>
+      <c r="J84">
+        <v>615495663637.6869</v>
+      </c>
+      <c r="K84">
+        <v>5.66845407866187</v>
+      </c>
+      <c r="L84">
+        <v>162524883267.3374</v>
+      </c>
+      <c r="M84">
+        <v>59.2939987182617</v>
+      </c>
+      <c r="N84" t="inlineStr">
         <is>
           <t>0.89353229734632555</t>
         </is>
       </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84">
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
         <v>877351775356.7981</v>
       </c>
     </row>
@@ -3678,15 +4948,30 @@
       <c r="H85">
         <v>62.6619987487793</v>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I85">
+        <v>11.73329375480054</v>
+      </c>
+      <c r="J85">
+        <v>268764929912.7213</v>
+      </c>
+      <c r="K85">
+        <v>57.0886187990424</v>
+      </c>
+      <c r="L85">
+        <v>169617508595.6095</v>
+      </c>
+      <c r="M85">
+        <v>62.6619987487793</v>
+      </c>
+      <c r="N85" t="inlineStr">
         <is>
           <t>0.9099222222222223</t>
         </is>
       </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85">
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
         <v>516688389314.9957</v>
       </c>
     </row>
@@ -3717,15 +5002,30 @@
       <c r="H86">
         <v>80.53900146484381</v>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="I86">
+        <v>5.783977562216433</v>
+      </c>
+      <c r="J86">
+        <v>9086465374.026091</v>
+      </c>
+      <c r="K86">
+        <v>84.3767955936285</v>
+      </c>
+      <c r="L86">
+        <v>2766701008.222994</v>
+      </c>
+      <c r="M86">
+        <v>80.53900146484381</v>
+      </c>
+      <c r="N86" t="inlineStr">
         <is>
           <t>0.45231111111111111</t>
         </is>
       </c>
-      <c r="J86">
+      <c r="O86">
         <v>0</v>
       </c>
-      <c r="K86">
+      <c r="P86">
         <v>20336447095.27514</v>
       </c>
     </row>
@@ -3756,15 +5056,30 @@
       <c r="H87">
         <v>64.1669998168945</v>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="I87">
+        <v>8.154195198860203</v>
+      </c>
+      <c r="J87">
+        <v>131380139922.0201</v>
+      </c>
+      <c r="K87">
+        <v>30.8647502104148</v>
+      </c>
+      <c r="L87">
+        <v>40017144595.3047</v>
+      </c>
+      <c r="M87">
+        <v>64.1669998168945</v>
+      </c>
+      <c r="N87" t="inlineStr">
         <is>
           <t>0.91676666666666673</t>
         </is>
       </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
         <v>192599618394.4921</v>
       </c>
     </row>
@@ -3795,15 +5110,30 @@
       <c r="H88">
         <v>56.2949981689453</v>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="I88">
+        <v>6.909017126552142</v>
+      </c>
+      <c r="J88">
+        <v>33221527628.62991</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>52966882843.258</v>
+      </c>
+      <c r="M88">
+        <v>56.2949981689453</v>
+      </c>
+      <c r="N88" t="inlineStr">
         <is>
           <t>0.60327911660533562</t>
         </is>
       </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
         <v>76688491266.39323</v>
       </c>
     </row>
@@ -3834,15 +5164,30 @@
       <c r="H89">
         <v>50.7169990539551</v>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="I89">
+        <v>9.950719693421036</v>
+      </c>
+      <c r="J89">
+        <v>126337626276.1108</v>
+      </c>
+      <c r="K89">
+        <v>47.2055915020146</v>
+      </c>
+      <c r="L89">
+        <v>48933664082.48663</v>
+      </c>
+      <c r="M89">
+        <v>50.7169990539551</v>
+      </c>
+      <c r="N89" t="inlineStr">
         <is>
           <t>0.37166734271579327</t>
         </is>
       </c>
-      <c r="J89">
+      <c r="O89">
         <v>0</v>
       </c>
-      <c r="K89">
+      <c r="P89">
         <v>258227372243.2851</v>
       </c>
     </row>
@@ -3873,15 +5218,30 @@
       <c r="H90">
         <v>62.3320007324219</v>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="I90">
+        <v>19.39794923645536</v>
+      </c>
+      <c r="J90">
+        <v>32818730500</v>
+      </c>
+      <c r="K90">
+        <v>19.7707869252438</v>
+      </c>
+      <c r="L90">
+        <v>12826435100</v>
+      </c>
+      <c r="M90">
+        <v>62.3320007324219</v>
+      </c>
+      <c r="N90" t="inlineStr">
         <is>
           <t>0.65741111111111117</t>
         </is>
       </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90">
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
         <v>46648373099.99999</v>
       </c>
     </row>
@@ -3912,15 +5272,30 @@
       <c r="H91">
         <v>70.8939971923828</v>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="I91">
+        <v>15.84216446765762</v>
+      </c>
+      <c r="J91">
+        <v>105475167312.434</v>
+      </c>
+      <c r="K91">
+        <v>25.6357006371001</v>
+      </c>
+      <c r="L91">
+        <v>63641070799.57732</v>
+      </c>
+      <c r="M91">
+        <v>70.8939971923828</v>
+      </c>
+      <c r="N91" t="inlineStr">
         <is>
           <t>0.66433787875705286</t>
         </is>
       </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91">
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
         <v>191721175527.1321</v>
       </c>
     </row>
@@ -3951,15 +5326,30 @@
       <c r="H92">
         <v>60.3269996643066</v>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="I92">
+        <v>14.56720703638924</v>
+      </c>
+      <c r="J92">
+        <v>163166634277.8818</v>
+      </c>
+      <c r="K92">
+        <v>28.7212885992368</v>
+      </c>
+      <c r="L92">
+        <v>89171661096.25995</v>
+      </c>
+      <c r="M92">
+        <v>60.3269996643066</v>
+      </c>
+      <c r="N92" t="inlineStr">
         <is>
           <t>0.60998405554284341</t>
         </is>
       </c>
-      <c r="J92">
+      <c r="O92">
         <v>0</v>
       </c>
-      <c r="K92">
+      <c r="P92">
         <v>344878850708.9595</v>
       </c>
     </row>
@@ -3990,15 +5380,30 @@
       <c r="H93">
         <v>51.8129997253418</v>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="I93">
+        <v>10.39355337326273</v>
+      </c>
+      <c r="J93">
+        <v>308656249587.235</v>
+      </c>
+      <c r="K93">
+        <v>11.5473555721006</v>
+      </c>
+      <c r="L93">
+        <v>160508895904.0535</v>
+      </c>
+      <c r="M93">
+        <v>51.8129997253418</v>
+      </c>
+      <c r="N93" t="inlineStr">
         <is>
           <t>0.82469993167453226</t>
         </is>
       </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-      <c r="K93">
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
         <v>524961492345.6915</v>
       </c>
     </row>
@@ -4029,15 +5434,30 @@
       <c r="H94">
         <v>50.568000793457</v>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="I94">
+        <v>14.158805828813</v>
+      </c>
+      <c r="J94">
+        <v>152691402106.3072</v>
+      </c>
+      <c r="K94">
+        <v>30.49879177365</v>
+      </c>
+      <c r="L94">
+        <v>43471041320.00501</v>
+      </c>
+      <c r="M94">
+        <v>50.568000793457</v>
+      </c>
+      <c r="N94" t="inlineStr">
         <is>
           <t>0.72761463589138442</t>
         </is>
       </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="K94">
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
         <v>225699395968.4866</v>
       </c>
     </row>
@@ -4068,15 +5488,30 @@
       <c r="H95">
         <v>67.129997253418</v>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="I95">
+        <v>11.35489866156407</v>
+      </c>
+      <c r="J95">
+        <v>14101337324.3691</v>
+      </c>
+      <c r="K95">
+        <v>63.116914548218</v>
+      </c>
+      <c r="L95">
+        <v>8036961626.278852</v>
+      </c>
+      <c r="M95">
+        <v>67.129997253418</v>
+      </c>
+      <c r="N95" t="inlineStr">
         <is>
           <t>0.5873222222222223</t>
         </is>
       </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95">
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
         <v>29343966440.72911</v>
       </c>
     </row>
@@ -4107,15 +5542,30 @@
       <c r="H96">
         <v>84.41200256347661</v>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="I96">
+        <v>6.858577755964489</v>
+      </c>
+      <c r="J96">
+        <v>62124725274.72527</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>143858241758.2418</v>
+      </c>
+      <c r="M96">
+        <v>84.41200256347661</v>
+      </c>
+      <c r="N96" t="inlineStr">
         <is>
           <t>0.68568674723307299</t>
         </is>
       </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96">
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
         <v>196924225274.7253</v>
       </c>
     </row>
@@ -4146,15 +5596,30 @@
       <c r="H97">
         <v>52.2449989318848</v>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="I97">
+        <v>13.06614507417425</v>
+      </c>
+      <c r="J97">
+        <v>104221814164.5766</v>
+      </c>
+      <c r="K97">
+        <v>24.3415075400388</v>
+      </c>
+      <c r="L97">
+        <v>62874208766.27254</v>
+      </c>
+      <c r="M97">
+        <v>52.2449989318848</v>
+      </c>
+      <c r="N97" t="inlineStr">
         <is>
           <t>0.74789428710937667</t>
         </is>
       </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="K97">
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
         <v>196966762689.5975</v>
       </c>
     </row>
@@ -4185,15 +5650,30 @@
       <c r="H98">
         <v>60.1730003356934</v>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="I98">
+        <v>5.235722680421947</v>
+      </c>
+      <c r="J98">
+        <v>1146623625664.105</v>
+      </c>
+      <c r="K98">
+        <v>3.45593226162695</v>
+      </c>
+      <c r="L98">
+        <v>575848408560.2927</v>
+      </c>
+      <c r="M98">
+        <v>60.1730003356934</v>
+      </c>
+      <c r="N98" t="inlineStr">
         <is>
           <t>0.77995555555555551</t>
         </is>
       </c>
-      <c r="J98">
-        <v>1</v>
-      </c>
-      <c r="K98">
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
         <v>1996422986274.906</v>
       </c>
     </row>
@@ -4224,15 +5704,30 @@
       <c r="H99">
         <v>51.4560012817383</v>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="I99">
+        <v>7.586026708167648</v>
+      </c>
+      <c r="J99">
+        <v>307057066666.6667</v>
+      </c>
+      <c r="K99">
+        <v>0.00600874301900143</v>
+      </c>
+      <c r="L99">
+        <v>432449866666.6667</v>
+      </c>
+      <c r="M99">
+        <v>51.4560012817383</v>
+      </c>
+      <c r="N99" t="inlineStr">
         <is>
           <t>0.72317409718831382</t>
         </is>
       </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99">
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
         <v>769903500653.7147</v>
       </c>
     </row>
@@ -4263,15 +5758,30 @@
       <c r="H100">
         <v>41.8629989624023</v>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="I100">
+        <v>11.10917913968298</v>
+      </c>
+      <c r="J100">
+        <v>37345807613.86812</v>
+      </c>
+      <c r="K100">
+        <v>62.4167635389548</v>
+      </c>
+      <c r="L100">
+        <v>2074759957.468319</v>
+      </c>
+      <c r="M100">
+        <v>41.8629989624023</v>
+      </c>
+      <c r="N100" t="inlineStr">
         <is>
           <t>0.30595555555555554</t>
         </is>
       </c>
-      <c r="J100">
+      <c r="O100">
         <v>0</v>
       </c>
-      <c r="K100">
+      <c r="P100">
         <v>74213617110.28604</v>
       </c>
     </row>
@@ -4302,15 +5812,30 @@
       <c r="H101">
         <v>50.9809989929199</v>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="I101">
+        <v>8.597900298293782</v>
+      </c>
+      <c r="J101">
+        <v>8079802335.757551</v>
+      </c>
+      <c r="K101">
+        <v>43.297169647721</v>
+      </c>
+      <c r="L101">
+        <v>3220012660.697283</v>
+      </c>
+      <c r="M101">
+        <v>50.9809989929199</v>
+      </c>
+      <c r="N101" t="inlineStr">
         <is>
           <t>0.36781111111111109</t>
         </is>
       </c>
-      <c r="J101">
+      <c r="O101">
         <v>0</v>
       </c>
-      <c r="K101">
+      <c r="P101">
         <v>14931131798.51306</v>
       </c>
     </row>
@@ -4341,15 +5866,30 @@
       <c r="H102">
         <v>65.4970016479492</v>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="I102">
+        <v>16.51633348268084</v>
+      </c>
+      <c r="J102">
+        <v>216347644226.975</v>
+      </c>
+      <c r="K102">
+        <v>0.621625222852765</v>
+      </c>
+      <c r="L102">
+        <v>74627338015.94193</v>
+      </c>
+      <c r="M102">
+        <v>65.4970016479492</v>
+      </c>
+      <c r="N102" t="inlineStr">
         <is>
           <t>0.76777777777777778</t>
         </is>
       </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102">
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
         <v>300231473443.2957</v>
       </c>
     </row>
@@ -4380,15 +5920,30 @@
       <c r="H103">
         <v>58.9449996948242</v>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="I103">
+        <v>12.5420585614267</v>
+      </c>
+      <c r="J103">
+        <v>14225850000</v>
+      </c>
+      <c r="K103">
+        <v>28.1655209118515</v>
+      </c>
+      <c r="L103">
+        <v>6156379999.999999</v>
+      </c>
+      <c r="M103">
+        <v>58.9449996948242</v>
+      </c>
+      <c r="N103" t="inlineStr">
         <is>
           <t>0.55326187875535737</t>
         </is>
       </c>
-      <c r="J103">
+      <c r="O103">
         <v>0</v>
       </c>
-      <c r="K103">
+      <c r="P103">
         <v>24020160000</v>
       </c>
     </row>
@@ -4419,15 +5974,30 @@
       <c r="H104">
         <v>41.7789993286133</v>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="I104">
+        <v>7.42486733427956</v>
+      </c>
+      <c r="J104">
+        <v>22289248495.28253</v>
+      </c>
+      <c r="K104">
+        <v>23.4292912343855</v>
+      </c>
+      <c r="L104">
+        <v>11135789370.09433</v>
+      </c>
+      <c r="M104">
+        <v>41.7789993286133</v>
+      </c>
+      <c r="N104" t="inlineStr">
         <is>
           <t>0.69544444444444442</t>
         </is>
       </c>
-      <c r="J104">
-        <v>1</v>
-      </c>
-      <c r="K104">
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
         <v>42422068939.30568</v>
       </c>
     </row>
@@ -4458,15 +6028,30 @@
       <c r="H105">
         <v>50.6860008239746</v>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="I105">
+        <v>12.81581258493545</v>
+      </c>
+      <c r="J105">
+        <v>2739090909.090909</v>
+      </c>
+      <c r="K105">
+        <v>25.3825345377523</v>
+      </c>
+      <c r="L105">
+        <v>1585151515.151515</v>
+      </c>
+      <c r="M105">
+        <v>50.6860008239746</v>
+      </c>
+      <c r="N105" t="inlineStr">
         <is>
           <t>0.58838028907775863</t>
         </is>
       </c>
-      <c r="J105">
-        <v>1</v>
-      </c>
-      <c r="K105">
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
         <v>5171206060.60606</v>
       </c>
     </row>
@@ -4497,15 +6082,30 @@
       <c r="H106">
         <v>52.1640014648438</v>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="I106">
+        <v>9.57740768909469</v>
+      </c>
+      <c r="J106">
+        <v>27602754387.6063</v>
+      </c>
+      <c r="K106">
+        <v>22.6778944212989</v>
+      </c>
+      <c r="L106">
+        <v>14126016336.245</v>
+      </c>
+      <c r="M106">
+        <v>52.1640014648438</v>
+      </c>
+      <c r="N106" t="inlineStr">
         <is>
           <t>0.86308333079020338</t>
         </is>
       </c>
-      <c r="J106">
-        <v>1</v>
-      </c>
-      <c r="K106">
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
         <v>49478657673.45318</v>
       </c>
     </row>
@@ -4536,15 +6136,30 @@
       <c r="H107">
         <v>59.439998626709</v>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="I107">
+        <v>9.34367110086137</v>
+      </c>
+      <c r="J107">
+        <v>370572172134.8213</v>
+      </c>
+      <c r="K107">
+        <v>49.5374589185318</v>
+      </c>
+      <c r="L107">
+        <v>130839401030.6401</v>
+      </c>
+      <c r="M107">
+        <v>59.439998626709</v>
+      </c>
+      <c r="N107" t="inlineStr">
         <is>
           <t>0.83013401108026019</t>
         </is>
       </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="K107">
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107">
         <v>586570195684.6046</v>
       </c>
     </row>
@@ -4575,15 +6190,30 @@
       <c r="H108">
         <v>75.3280029296875</v>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="I108">
+        <v>3.034053529411703</v>
+      </c>
+      <c r="J108">
+        <v>1827336383.402607</v>
+      </c>
+      <c r="K108">
+        <v>72.82531866998831</v>
+      </c>
+      <c r="L108">
+        <v>774151674.2008233</v>
+      </c>
+      <c r="M108">
+        <v>75.3280029296875</v>
+      </c>
+      <c r="N108" t="inlineStr">
         <is>
           <t>0.51442222222222223</t>
         </is>
       </c>
-      <c r="J108">
+      <c r="O108">
         <v>0</v>
       </c>
-      <c r="K108">
+      <c r="P108">
         <v>4032303011.437759</v>
       </c>
     </row>
@@ -4614,15 +6244,30 @@
       <c r="H109">
         <v>70.9059982299805</v>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="I109">
+        <v>7.943902617501865</v>
+      </c>
+      <c r="J109">
+        <v>215383900147.1684</v>
+      </c>
+      <c r="K109">
+        <v>23.5859684186144</v>
+      </c>
+      <c r="L109">
+        <v>150184391529.5045</v>
+      </c>
+      <c r="M109">
+        <v>70.9059982299805</v>
+      </c>
+      <c r="N109" t="inlineStr">
         <is>
           <t>0.60796528392367888</t>
         </is>
       </c>
-      <c r="J109">
-        <v>1</v>
-      </c>
-      <c r="K109">
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
         <v>385376634092.5745</v>
       </c>
     </row>
@@ -4653,15 +6298,30 @@
       <c r="H110">
         <v>60.9739990234375</v>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="I110">
+        <v>7.998179565070717</v>
+      </c>
+      <c r="J110">
+        <v>3722780298.120544</v>
+      </c>
+      <c r="K110">
+        <v>40.7136405668704</v>
+      </c>
+      <c r="L110">
+        <v>2059867141.931303</v>
+      </c>
+      <c r="M110">
+        <v>60.9739990234375</v>
+      </c>
+      <c r="N110" t="inlineStr">
         <is>
           <t>0.63944444444444448</t>
         </is>
       </c>
-      <c r="J110">
+      <c r="O110">
         <v>0</v>
       </c>
-      <c r="K110">
+      <c r="P110">
         <v>11420090246.27349</v>
       </c>
     </row>
@@ -4692,15 +6352,30 @@
       <c r="H111">
         <v>60.8610000610352</v>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="I111">
+        <v>2.303814578618622</v>
+      </c>
+      <c r="J111">
+        <v>12880061163.03382</v>
+      </c>
+      <c r="K111">
+        <v>0.280935357038369</v>
+      </c>
+      <c r="L111">
+        <v>12279540029.02124</v>
+      </c>
+      <c r="M111">
+        <v>60.8610000610352</v>
+      </c>
+      <c r="N111" t="inlineStr">
         <is>
           <t>0.70032068888346333</t>
         </is>
       </c>
-      <c r="J111">
-        <v>1</v>
-      </c>
-      <c r="K111">
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
         <v>23740408200.83943</v>
       </c>
     </row>
@@ -4731,15 +6406,30 @@
       <c r="H112">
         <v>40.1269989013672</v>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="I112">
+        <v>12.00237843657562</v>
+      </c>
+      <c r="J112">
+        <v>27011309418.62519</v>
+      </c>
+      <c r="K112">
+        <v>12.9240743677517</v>
+      </c>
+      <c r="L112">
+        <v>12968133356.89462</v>
+      </c>
+      <c r="M112">
+        <v>40.1269989013672</v>
+      </c>
+      <c r="N112" t="inlineStr">
         <is>
           <t>0.62145555555555554</t>
         </is>
       </c>
-      <c r="J112">
+      <c r="O112">
         <v>0</v>
       </c>
-      <c r="K112">
+      <c r="P112">
         <v>45895623490.60493</v>
       </c>
     </row>
@@ -4770,15 +6460,30 @@
       <c r="H113">
         <v>45.3240013122559</v>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="I113">
+        <v>14.64763040001459</v>
+      </c>
+      <c r="J113">
+        <v>501258063757.0437</v>
+      </c>
+      <c r="K113">
+        <v>11.5781689449301</v>
+      </c>
+      <c r="L113">
+        <v>263390194615.8231</v>
+      </c>
+      <c r="M113">
+        <v>45.3240013122559</v>
+      </c>
+      <c r="N113" t="inlineStr">
         <is>
           <t>0.65202369689941397</t>
         </is>
       </c>
-      <c r="J113">
-        <v>1</v>
-      </c>
-      <c r="K113">
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
         <v>925992774215.0314</v>
       </c>
     </row>
@@ -4809,15 +6514,30 @@
       <c r="H114">
         <v>76.963996887207</v>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="I114">
+        <v>5.167322158527033</v>
+      </c>
+      <c r="J114">
+        <v>19713252896.22852</v>
+      </c>
+      <c r="K114">
+        <v>86.6734453214743</v>
+      </c>
+      <c r="L114">
+        <v>11194766398.76131</v>
+      </c>
+      <c r="M114">
+        <v>76.963996887207</v>
+      </c>
+      <c r="N114" t="inlineStr">
         <is>
           <t>0.42588888888888887</t>
         </is>
       </c>
-      <c r="J114">
+      <c r="O114">
         <v>0</v>
       </c>
-      <c r="K114">
+      <c r="P114">
         <v>47678502144.34119</v>
       </c>
     </row>
@@ -4848,15 +6568,30 @@
       <c r="H115">
         <v>53.4739990234375</v>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="I115">
+        <v>3.533252065752586</v>
+      </c>
+      <c r="J115">
+        <v>72304003634.31398</v>
+      </c>
+      <c r="K115">
+        <v>3.49771846558718</v>
+      </c>
+      <c r="L115">
+        <v>30464132181.34554</v>
+      </c>
+      <c r="M115">
+        <v>53.4739990234375</v>
+      </c>
+      <c r="N115" t="inlineStr">
         <is>
           <t>0.79551111111111106</t>
         </is>
       </c>
-      <c r="J115">
+      <c r="O115">
         <v>0</v>
       </c>
-      <c r="K115">
+      <c r="P115">
         <v>131944938460.6325</v>
       </c>
     </row>
@@ -4887,15 +6622,30 @@
       <c r="H116">
         <v>61.0830001831055</v>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="I116">
+        <v>15.15393945529099</v>
+      </c>
+      <c r="J116">
+        <v>32287299109.52422</v>
+      </c>
+      <c r="K116">
+        <v>55.4313667685738</v>
+      </c>
+      <c r="L116">
+        <v>14137662199.94838</v>
+      </c>
+      <c r="M116">
+        <v>61.0830001831055</v>
+      </c>
+      <c r="N116" t="inlineStr">
         <is>
           <t>0.71226242913140192</t>
         </is>
       </c>
-      <c r="J116">
-        <v>1</v>
-      </c>
-      <c r="K116">
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
         <v>55300141826.5508</v>
       </c>
     </row>
@@ -4926,15 +6676,30 @@
       <c r="H117">
         <v>58.3740005493164</v>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="I117">
+        <v>7.848212241602171</v>
+      </c>
+      <c r="J117">
+        <v>13109798000000</v>
+      </c>
+      <c r="K117">
+        <v>8.913332384660251</v>
+      </c>
+      <c r="L117">
+        <v>3512633000000</v>
+      </c>
+      <c r="M117">
+        <v>58.3740005493164</v>
+      </c>
+      <c r="N117" t="inlineStr">
         <is>
           <t>0.88975920702848532</t>
         </is>
       </c>
-      <c r="J117">
-        <v>1</v>
-      </c>
-      <c r="K117">
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
         <v>17899139000000</v>
       </c>
     </row>
@@ -4965,15 +6730,30 @@
       <c r="H118">
         <v>39.5919990539551</v>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="I118">
+        <v>4.834636548011828</v>
+      </c>
+      <c r="J118">
+        <v>214215356547.2187</v>
+      </c>
+      <c r="K118">
+        <v>16.587154515855</v>
+      </c>
+      <c r="L118">
+        <v>93094621614.89767</v>
+      </c>
+      <c r="M118">
+        <v>39.5919990539551</v>
+      </c>
+      <c r="N118" t="inlineStr">
         <is>
           <t>0.69544716386583105</t>
         </is>
       </c>
-      <c r="J118">
-        <v>1</v>
-      </c>
-      <c r="K118">
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118">
         <v>341494006099.8646</v>
       </c>
     </row>

--- a/Masterdata 1212017.xlsx
+++ b/Masterdata 1212017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P118"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,65 +375,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Energy_Eff.x</t>
+          <t>Energy_Eff</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Service.x</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Renewable.x</t>
+          <t>Renewable</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Industry.x</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Emp_Pop.x</t>
+          <t>Emp_Pop</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Energy_Eff.y</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Service.y</t>
+          <t>Income_Level</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Renewable.y</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Industry.y</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Emp_Pop.y</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Income_Level</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>GNI</t>
         </is>
@@ -466,30 +441,15 @@
       <c r="H2">
         <v>41.5670013427734</v>
       </c>
-      <c r="I2">
-        <v>14.00858403532395</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.60851936340332036</t>
+        </is>
       </c>
       <c r="J2">
-        <v>6049197694.900985</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>38.6894965993971</v>
-      </c>
-      <c r="L2">
-        <v>2843639432.229292</v>
-      </c>
-      <c r="M2">
-        <v>41.5670013427734</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.60851936340332036</t>
-        </is>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
         <v>13061911627.12649</v>
       </c>
     </row>
@@ -520,30 +480,15 @@
       <c r="H3">
         <v>76.9599990844727</v>
       </c>
-      <c r="I3">
-        <v>8.694679035696984</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.67321495406717657</t>
+        </is>
       </c>
       <c r="J3">
-        <v>220101536883.1804</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.167806950232284</v>
-      </c>
-      <c r="L3">
-        <v>180523447553.8688</v>
-      </c>
-      <c r="M3">
-        <v>76.9599990844727</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.67321495406717657</t>
-        </is>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
         <v>403856634555.518</v>
       </c>
     </row>
@@ -574,30 +519,15 @@
       <c r="H4">
         <v>56.4790000915527</v>
       </c>
-      <c r="I4">
-        <v>9.826015510823172</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.78335559705298508</t>
+        </is>
       </c>
       <c r="J4">
-        <v>278636495643.7783</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>10.7731248609902</v>
-      </c>
-      <c r="L4">
-        <v>127776703489.5749</v>
-      </c>
-      <c r="M4">
-        <v>56.4790000915527</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.78335559705298508</t>
-        </is>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
         <v>515582856206.232</v>
       </c>
     </row>
@@ -628,30 +558,15 @@
       <c r="H5">
         <v>51.9469985961914</v>
       </c>
-      <c r="I5">
-        <v>8.247696489617434</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.70136666666666669</t>
+        </is>
       </c>
       <c r="J5">
-        <v>5264093462.249213</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>7.7247338654504</v>
-      </c>
-      <c r="L5">
-        <v>2933785792.357084</v>
-      </c>
-      <c r="M5">
-        <v>51.9469985961914</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.70136666666666669</t>
-        </is>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
         <v>12150313552.51661</v>
       </c>
     </row>
@@ -682,30 +597,15 @@
       <c r="H6">
         <v>60.8629989624023</v>
       </c>
-      <c r="I6">
-        <v>8.700868910190668</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.92653552042643339</t>
+        </is>
       </c>
       <c r="J6">
-        <v>958428348480.6758</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>9.49756781534329</v>
-      </c>
-      <c r="L6">
-        <v>371768107959.2399</v>
-      </c>
-      <c r="M6">
-        <v>60.8629989624023</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0.92653552042643339</t>
-        </is>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
         <v>1421211787386.395</v>
       </c>
     </row>
@@ -736,30 +636,15 @@
       <c r="H7">
         <v>56.8409996032715</v>
       </c>
-      <c r="I7">
-        <v>12.91112391096773</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.79448102740988591</t>
+        </is>
       </c>
       <c r="J7">
-        <v>274846586331.6267</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>35.7839266718351</v>
-      </c>
-      <c r="L7">
-        <v>110448872448.2157</v>
-      </c>
-      <c r="M7">
-        <v>56.8409996032715</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0.79448102740988591</t>
-        </is>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
         <v>439271060434.5928</v>
       </c>
     </row>
@@ -790,30 +675,15 @@
       <c r="H8">
         <v>61.5309982299805</v>
       </c>
-      <c r="I8">
-        <v>11.7221748266</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.69977777777777783</t>
+        </is>
       </c>
       <c r="J8">
-        <v>25090654086.44652</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>2.11681848302002</v>
-      </c>
-      <c r="L8">
-        <v>40632028560.49982</v>
-      </c>
-      <c r="M8">
-        <v>61.5309982299805</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0.69977777777777783</t>
-        </is>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
         <v>73087339028.433</v>
       </c>
     </row>
@@ -844,30 +714,15 @@
       <c r="H9">
         <v>49.0349998474121</v>
       </c>
-      <c r="I9">
-        <v>9.514160607505595</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.81229168814412056</t>
+        </is>
       </c>
       <c r="J9">
-        <v>367618018613.3077</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>9.03805711114229</v>
-      </c>
-      <c r="L9">
-        <v>104577133663.5211</v>
-      </c>
-      <c r="M9">
-        <v>49.0349998474121</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.81229168814412056</t>
-        </is>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
         <v>534584143078.5015</v>
       </c>
     </row>
@@ -898,30 +753,15 @@
       <c r="H10">
         <v>70.9010009765625</v>
       </c>
-      <c r="I10">
-        <v>5.057587773467022</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.41355555555555557</t>
+        </is>
       </c>
       <c r="J10">
-        <v>4477817218.328732</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>48.6007363668526</v>
-      </c>
-      <c r="L10">
-        <v>2015917801.846627</v>
-      </c>
-      <c r="M10">
-        <v>70.9010009765625</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0.41355555555555557</t>
-        </is>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
         <v>9646277722.15649</v>
       </c>
     </row>
@@ -952,30 +792,15 @@
       <c r="H11">
         <v>59.443000793457</v>
       </c>
-      <c r="I11">
-        <v>14.09313359135622</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.44688044481397404</t>
+        </is>
       </c>
       <c r="J11">
-        <v>92728417856.29274</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>37.4850319815536</v>
-      </c>
-      <c r="L11">
-        <v>45487972928.6353</v>
-      </c>
-      <c r="M11">
-        <v>59.443000793457</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0.44688044481397404</t>
-        </is>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
         <v>184407434331.9973</v>
       </c>
     </row>
@@ -1006,30 +831,15 @@
       <c r="H12">
         <v>47.943000793457</v>
       </c>
-      <c r="I12">
-        <v>7.025217658922278</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.74940720495510904</t>
+        </is>
       </c>
       <c r="J12">
-        <v>33296767060.1004</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>16.9670838312646</v>
-      </c>
-      <c r="L12">
-        <v>13366815221.81522</v>
-      </c>
-      <c r="M12">
-        <v>47.943000793457</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0.74940720495510904</t>
-        </is>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
         <v>56240362230.36223</v>
       </c>
     </row>
@@ -1060,30 +870,15 @@
       <c r="H13">
         <v>68.3669967651367</v>
       </c>
-      <c r="I13">
-        <v>4.411415589258137</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.71396666666666664</t>
+        </is>
       </c>
       <c r="J13">
-        <v>17521276595.74468</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>15531888297.87234</v>
-      </c>
-      <c r="M13">
-        <v>68.3669967651367</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0.71396666666666664</t>
-        </is>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
         <v>27723712765.95745</v>
       </c>
     </row>
@@ -1114,30 +909,15 @@
       <c r="H14">
         <v>33.5130004882813</v>
       </c>
-      <c r="I14">
-        <v>5.109924075528354</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.65531820777777772</t>
+        </is>
       </c>
       <c r="J14">
-        <v>10046036494.36983</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>41.7454606859552</v>
-      </c>
-      <c r="L14">
-        <v>4090754307.420974</v>
-      </c>
-      <c r="M14">
-        <v>33.5130004882813</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0.65531820777777772</t>
-        </is>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
         <v>18659611992.94532</v>
       </c>
     </row>
@@ -1168,30 +948,15 @@
       <c r="H15">
         <v>60.4379997253418</v>
       </c>
-      <c r="I15">
-        <v>6.454575878299596</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.81998416444444444</t>
+        </is>
       </c>
       <c r="J15">
-        <v>35979901414.32952</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>6.63418114779464</v>
-      </c>
-      <c r="L15">
-        <v>27883308094.7692</v>
-      </c>
-      <c r="M15">
-        <v>60.4379997253418</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0.81998416444444444</t>
-        </is>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
         <v>76400774143.3539</v>
       </c>
     </row>
@@ -1222,30 +987,15 @@
       <c r="H16">
         <v>70.536003112793</v>
       </c>
-      <c r="I16">
-        <v>8.44638698684366</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.67349999999999999</t>
+        </is>
       </c>
       <c r="J16">
-        <v>12418374384.94935</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>16.8179622115658</v>
-      </c>
-      <c r="L16">
-        <v>9115361939.218523</v>
-      </c>
-      <c r="M16">
-        <v>70.536003112793</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0.67349999999999999</t>
-        </is>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
         <v>31299897333.55557</v>
       </c>
     </row>
@@ -1276,30 +1026,15 @@
       <c r="H17">
         <v>62.6829986572266</v>
       </c>
-      <c r="I17">
-        <v>10.90406991805919</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.66130562900764922</t>
+        </is>
       </c>
       <c r="J17">
-        <v>1504320441988.95</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>41.8109308549229</v>
-      </c>
-      <c r="L17">
-        <v>502802379940.5015</v>
-      </c>
-      <c r="M17">
-        <v>62.6829986572266</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0.66130562900764922</t>
-        </is>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
         <v>2407378240543.986</v>
       </c>
     </row>
@@ -1330,30 +1065,15 @@
       <c r="H18">
         <v>62.6370010375977</v>
       </c>
-      <c r="I18">
-        <v>9.285115323562497</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.69211111111111112</t>
+        </is>
       </c>
       <c r="J18">
-        <v>5374901341.752171</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0.0139761924498174</v>
-      </c>
-      <c r="L18">
-        <v>11600631412.78611</v>
-      </c>
-      <c r="M18">
-        <v>62.6370010375977</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0.69211111111111112</t>
-        </is>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
         <v>17082872928.1768</v>
       </c>
     </row>
@@ -1384,30 +1104,15 @@
       <c r="H19">
         <v>64.0309982299805</v>
       </c>
-      <c r="I19">
-        <v>13.38286539054236</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.61899999999999999</t>
+        </is>
       </c>
       <c r="J19">
-        <v>8486226254.834863</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>29.1684971808001</v>
-      </c>
-      <c r="L19">
-        <v>5579575060.809315</v>
-      </c>
-      <c r="M19">
-        <v>64.0309982299805</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0.61899999999999999</t>
-        </is>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
         <v>15913669550.78896</v>
       </c>
     </row>
@@ -1438,30 +1143,15 @@
       <c r="H20">
         <v>65.5920028686523</v>
       </c>
-      <c r="I20">
-        <v>20.00954460539186</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.84408920885422867</t>
+        </is>
       </c>
       <c r="J20">
-        <v>500137743943.6081</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>23.4522294543551</v>
-      </c>
-      <c r="L20">
-        <v>174497838510.3676</v>
-      </c>
-      <c r="M20">
-        <v>65.5920028686523</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0.84408920885422867</t>
-        </is>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
         <v>709274809461.4583</v>
       </c>
     </row>
@@ -1492,30 +1182,15 @@
       <c r="H21">
         <v>58.3230018615723</v>
       </c>
-      <c r="I21">
-        <v>11.26138475787098</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.74567525651719846</t>
+        </is>
       </c>
       <c r="J21">
-        <v>148028025461.8144</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>26.4152789686805</v>
-      </c>
-      <c r="L21">
-        <v>80496193523.7106</v>
-      </c>
-      <c r="M21">
-        <v>58.3230018615723</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>0.74567525651719846</t>
-        </is>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
         <v>251692857786.1734</v>
       </c>
     </row>
@@ -1546,30 +1221,15 @@
       <c r="H22">
         <v>67.6999969482422</v>
       </c>
-      <c r="I22">
-        <v>6.008730690569246</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.60966666666666669</t>
+        </is>
       </c>
       <c r="J22">
-        <v>5014465930917.733</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>17.099459693837</v>
-      </c>
-      <c r="L22">
-        <v>4518211413875.054</v>
-      </c>
-      <c r="M22">
-        <v>67.6999969482422</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>0.60966666666666669</t>
-        </is>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
         <v>10495671777842.89</v>
       </c>
     </row>
@@ -1600,30 +1260,15 @@
       <c r="H23">
         <v>72.8190002441406</v>
       </c>
-      <c r="I23">
-        <v>8.946793058237784</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.48578888888888894</t>
+        </is>
       </c>
       <c r="J23">
-        <v>14073387741.06773</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>77.3882169287856</v>
-      </c>
-      <c r="L23">
-        <v>8858278976.163748</v>
-      </c>
-      <c r="M23">
-        <v>72.8190002441406</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>0.48578888888888894</t>
-        </is>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
         <v>31761332019.05282</v>
       </c>
     </row>
@@ -1654,30 +1299,15 @@
       <c r="H24">
         <v>68.4700012207031</v>
       </c>
-      <c r="I24">
-        <v>1.962384744782268</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.37177777777777776</t>
+        </is>
       </c>
       <c r="J24">
-        <v>13261572745.32178</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>92.8713124189544</v>
-      </c>
-      <c r="L24">
-        <v>11418202496.09596</v>
-      </c>
-      <c r="M24">
-        <v>68.4700012207031</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>0.37177777777777776</t>
-        </is>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
         <v>30987419332.5546</v>
       </c>
     </row>
@@ -1708,30 +1338,15 @@
       <c r="H25">
         <v>62.8139991760254</v>
       </c>
-      <c r="I25">
-        <v>10.81264672244209</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.51133333333333331</t>
+        </is>
       </c>
       <c r="J25">
-        <v>3650505062.953187</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>62.3685090980879</v>
-      </c>
-      <c r="L25">
-        <v>9841555288.168846</v>
-      </c>
-      <c r="M25">
-        <v>62.8139991760254</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0.51133333333333331</t>
-        </is>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
         <v>11738937539.92092</v>
       </c>
     </row>
@@ -1762,30 +1377,15 @@
       <c r="H26">
         <v>62.2599983215332</v>
       </c>
-      <c r="I26">
-        <v>18.82414837532147</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.60222241083780936</t>
+        </is>
       </c>
       <c r="J26">
-        <v>201205826211.7584</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>24.5170199022736</v>
-      </c>
-      <c r="L26">
-        <v>123724823045.0784</v>
-      </c>
-      <c r="M26">
-        <v>62.2599983215332</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>0.60222241083780936</t>
-        </is>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
         <v>365835343319.1243</v>
       </c>
     </row>
@@ -1816,30 +1416,15 @@
       <c r="H27">
         <v>55.6510009765625</v>
       </c>
-      <c r="I27">
-        <v>14.70265500029459</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.65392160415649403</t>
+        </is>
       </c>
       <c r="J27">
-        <v>33584403360.32362</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>37.8689097634167</v>
-      </c>
-      <c r="L27">
-        <v>10246393293.39653</v>
-      </c>
-      <c r="M27">
-        <v>55.6510009765625</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0.65392160415649403</t>
-        </is>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
         <v>48561915005.1308</v>
       </c>
     </row>
@@ -1870,30 +1455,15 @@
       <c r="H28">
         <v>53.4379997253418</v>
       </c>
-      <c r="I28">
-        <v>13.17175678240381</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.77619837654961565</t>
+        </is>
       </c>
       <c r="J28">
-        <v>17827517579.93897</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>9.38913818712321</v>
-      </c>
-      <c r="L28">
-        <v>2191720843.83707</v>
-      </c>
-      <c r="M28">
-        <v>53.4379997253418</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>0.77619837654961565</t>
-        </is>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
         <v>22453682366.98952</v>
       </c>
     </row>
@@ -1924,30 +1494,15 @@
       <c r="H29">
         <v>55.7999992370605</v>
       </c>
-      <c r="I29">
-        <v>8.264801365036362</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.86622222222222223</t>
+        </is>
       </c>
       <c r="J29">
-        <v>111505961700.5901</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>12.7526694916312</v>
-      </c>
-      <c r="L29">
-        <v>71169167770.68529</v>
-      </c>
-      <c r="M29">
-        <v>55.7999992370605</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>0.86622222222222223</t>
-        </is>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
         <v>193774683849.2111</v>
       </c>
     </row>
@@ -1978,30 +1533,15 @@
       <c r="H30">
         <v>57.3619995117188</v>
       </c>
-      <c r="I30">
-        <v>12.45102078555789</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.88437195231119781</t>
+        </is>
       </c>
       <c r="J30">
-        <v>2398061949645.139</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>13.3788776513884</v>
-      </c>
-      <c r="L30">
-        <v>1065816956727.344</v>
-      </c>
-      <c r="M30">
-        <v>57.3619995117188</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>0.88437195231119781</t>
-        </is>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30">
         <v>3965531527899.799</v>
       </c>
     </row>
@@ -2032,30 +1572,15 @@
       <c r="H31">
         <v>58.0519981384277</v>
       </c>
-      <c r="I31">
-        <v>16.64207092413301</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.87282605528397295</t>
+        </is>
       </c>
       <c r="J31">
-        <v>232021333460.0353</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>30.2199272420558</v>
-      </c>
-      <c r="L31">
-        <v>68757112143.20497</v>
-      </c>
-      <c r="M31">
-        <v>58.0519981384277</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>0.87282605528397295</t>
-        </is>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
         <v>365069428771.6629</v>
       </c>
     </row>
@@ -2086,30 +1611,15 @@
       <c r="H32">
         <v>55.8320007324219</v>
       </c>
-      <c r="I32">
-        <v>18.12884465775038</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.59017054239908862</t>
+        </is>
       </c>
       <c r="J32">
-        <v>40348063630.72826</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>18.3784571017074</v>
-      </c>
-      <c r="L32">
-        <v>17391682112.68253</v>
-      </c>
-      <c r="M32">
-        <v>55.8320007324219</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>0.59017054239908862</t>
-        </is>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
         <v>61983632303.24181</v>
       </c>
     </row>
@@ -2140,30 +1650,15 @@
       <c r="H33">
         <v>38.9459991455078</v>
       </c>
-      <c r="I33">
-        <v>10.75079191522808</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.64258888888888888</t>
+        </is>
       </c>
       <c r="J33">
-        <v>86109869609.94801</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0.0687754386656932</v>
-      </c>
-      <c r="L33">
-        <v>90474025454.5229</v>
-      </c>
-      <c r="M33">
-        <v>38.9459991455078</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>0.64258888888888888</t>
-        </is>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
         <v>209164336315.9136</v>
       </c>
     </row>
@@ -2194,30 +1689,15 @@
       <c r="H34">
         <v>61.6769981384277</v>
       </c>
-      <c r="I34">
-        <v>12.90367773047049</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.59383750000000002</t>
+        </is>
       </c>
       <c r="J34">
-        <v>50522601000</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>12.2181400449995</v>
-      </c>
-      <c r="L34">
-        <v>37565013000</v>
-      </c>
-      <c r="M34">
-        <v>61.6769981384277</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>0.59383750000000002</t>
-        </is>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34">
         <v>100739446800</v>
       </c>
     </row>
@@ -2248,30 +1728,15 @@
       <c r="H35">
         <v>42.773998260498</v>
       </c>
-      <c r="I35">
-        <v>12.76992906106108</v>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.57344444444444442</t>
+        </is>
       </c>
       <c r="J35">
-        <v>156743598938.5355</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>6.41256075429046</v>
-      </c>
-      <c r="L35">
-        <v>121876798393.4591</v>
-      </c>
-      <c r="M35">
-        <v>42.773998260498</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>0.57344444444444442</t>
-        </is>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
         <v>304487886394.6066</v>
       </c>
     </row>
@@ -2302,30 +1767,15 @@
       <c r="H36">
         <v>44.3320007324219</v>
       </c>
-      <c r="I36">
-        <v>13.65641520855246</v>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.79439697265625009</t>
+        </is>
       </c>
       <c r="J36">
-        <v>929664886762.7664</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>17.3517364796672</v>
-      </c>
-      <c r="L36">
-        <v>291220709607.7314</v>
-      </c>
-      <c r="M36">
-        <v>44.3320007324219</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>0.79439697265625009</t>
-        </is>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
         <v>1371431400690.727</v>
       </c>
     </row>
@@ -2356,30 +1806,15 @@
       <c r="H37">
         <v>57.2680015563965</v>
       </c>
-      <c r="I37">
-        <v>6.215035153674235</v>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.85853333333333337</t>
+        </is>
       </c>
       <c r="J37">
-        <v>15463946781.26292</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>25.2491437619919</v>
-      </c>
-      <c r="L37">
-        <v>6531531832.495505</v>
-      </c>
-      <c r="M37">
-        <v>57.2680015563965</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>0.85853333333333337</t>
-        </is>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
         <v>25505925476.41841</v>
       </c>
     </row>
@@ -2410,30 +1845,15 @@
       <c r="H38">
         <v>78.80999755859381</v>
       </c>
-      <c r="I38">
-        <v>3.020424155746991</v>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.3165219730801051</t>
+        </is>
       </c>
       <c r="J38">
-        <v>22184834811.69267</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>92.7190417907475</v>
-      </c>
-      <c r="L38">
-        <v>7491703730.498239</v>
-      </c>
-      <c r="M38">
-        <v>78.80999755859381</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>0.3165219730801051</t>
-        </is>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
         <v>55459432981.04345</v>
       </c>
     </row>
@@ -2464,30 +1884,15 @@
       <c r="H39">
         <v>53.7210006713867</v>
       </c>
-      <c r="I39">
-        <v>6.681049413262137</v>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.81508888888888886</t>
+        </is>
       </c>
       <c r="J39">
-        <v>165389301414.0654</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>41.1912614309843</v>
-      </c>
-      <c r="L39">
-        <v>62879218918.95666</v>
-      </c>
-      <c r="M39">
-        <v>53.7210006713867</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>0.81508888888888886</t>
-        </is>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
         <v>275087627317.6839</v>
       </c>
     </row>
@@ -2518,30 +1923,15 @@
       <c r="H40">
         <v>49.7200012207031</v>
       </c>
-      <c r="I40">
-        <v>10.99548627910326</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.81554941601223441</t>
+        </is>
       </c>
       <c r="J40">
-        <v>2002309215321.079</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>13.1326380260299</v>
-      </c>
-      <c r="L40">
-        <v>497896638306.6644</v>
-      </c>
-      <c r="M40">
-        <v>49.7200012207031</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>0.81554941601223441</t>
-        </is>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
         <v>2876718295240.433</v>
       </c>
     </row>
@@ -2572,30 +1962,15 @@
       <c r="H41">
         <v>38.6450004577637</v>
       </c>
-      <c r="I41">
-        <v>6.493040405464251</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.58933333333333326</t>
+        </is>
       </c>
       <c r="J41">
-        <v>6426069712.690757</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>81.04620400257819</v>
-      </c>
-      <c r="L41">
-        <v>9584738552.228394</v>
-      </c>
-      <c r="M41">
-        <v>38.6450004577637</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>0.58933333333333326</t>
-        </is>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41">
         <v>17233260805.59853</v>
       </c>
     </row>
@@ -2626,30 +2001,15 @@
       <c r="H42">
         <v>58.882999420166</v>
       </c>
-      <c r="I42">
-        <v>14.66023870462033</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.86026014506022219</t>
+        </is>
       </c>
       <c r="J42">
-        <v>2116074226306.596</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>7.29444531478333</v>
-      </c>
-      <c r="L42">
-        <v>538524017137.5792</v>
-      </c>
-      <c r="M42">
-        <v>58.882999420166</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>0.86026014506022219</t>
-        </is>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42">
         <v>2959727353164.456</v>
       </c>
     </row>
@@ -2680,30 +2040,15 @@
       <c r="H43">
         <v>58.5789985656738</v>
       </c>
-      <c r="I43">
-        <v>7.824566128315838</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.77033333333333331</t>
+        </is>
       </c>
       <c r="J43">
-        <v>9487087840.516508</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>31.8929795859145</v>
-      </c>
-      <c r="L43">
-        <v>3407281871.212551</v>
-      </c>
-      <c r="M43">
-        <v>58.5789985656738</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>0.77033333333333331</t>
-        </is>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
         <v>16357554227.78502</v>
       </c>
     </row>
@@ -2734,30 +2079,15 @@
       <c r="H44">
         <v>72.8710021972656</v>
       </c>
-      <c r="I44">
-        <v>12.16281559917769</v>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0.55274444444444437</t>
+        </is>
       </c>
       <c r="J44">
-        <v>17680639228.64639</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>45.218180840838</v>
-      </c>
-      <c r="L44">
-        <v>9800944056.420565</v>
-      </c>
-      <c r="M44">
-        <v>72.8710021972656</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>0.55274444444444437</t>
-        </is>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
         <v>36899140301.86366</v>
       </c>
     </row>
@@ -2788,30 +2118,15 @@
       <c r="H45">
         <v>38.0979995727539</v>
       </c>
-      <c r="I45">
-        <v>12.44436049816443</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.79698855082193998</t>
+        </is>
       </c>
       <c r="J45">
-        <v>167560946034.9663</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>16.0857931499591</v>
-      </c>
-      <c r="L45">
-        <v>33232732035.16909</v>
-      </c>
-      <c r="M45">
-        <v>38.0979995727539</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>0.79698855082193998</t>
-        </is>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45">
         <v>236599180334.1602</v>
       </c>
     </row>
@@ -2842,30 +2157,15 @@
       <c r="H46">
         <v>59.4739990234375</v>
       </c>
-      <c r="I46">
-        <v>9.070138625635192</v>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.48387988938225657</t>
+        </is>
       </c>
       <c r="J46">
-        <v>34772388970.79744</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>59.9032015277055</v>
-      </c>
-      <c r="L46">
-        <v>16052533690.2822</v>
-      </c>
-      <c r="M46">
-        <v>59.4739990234375</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>0.48387988938225657</t>
-        </is>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
         <v>57132823918.16042</v>
       </c>
     </row>
@@ -2896,30 +2196,15 @@
       <c r="H47">
         <v>58.6940002441406</v>
       </c>
-      <c r="I47">
-        <v>28.22057411103687</v>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0.76736666666666675</t>
+        </is>
       </c>
       <c r="J47">
-        <v>263699204291.923</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>1.79258510281997</v>
-      </c>
-      <c r="L47">
-        <v>20598908964.28986</v>
-      </c>
-      <c r="M47">
-        <v>58.6940002441406</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>0.76736666666666675</t>
-        </is>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
         <v>297469983621.5679</v>
       </c>
     </row>
@@ -2950,30 +2235,15 @@
       <c r="H48">
         <v>61.9020004272461</v>
       </c>
-      <c r="I48">
-        <v>7.332652577869291</v>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.5049631489647759</t>
+        </is>
       </c>
       <c r="J48">
-        <v>10762257396.30586</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>54.0409434401299</v>
-      </c>
-      <c r="L48">
-        <v>4842480262.739782</v>
-      </c>
-      <c r="M48">
-        <v>61.9020004272461</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>0.5049631489647759</t>
-        </is>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
         <v>18168819901.40506</v>
       </c>
     </row>
@@ -3004,30 +2274,15 @@
       <c r="H49">
         <v>43.3600006103516</v>
       </c>
-      <c r="I49">
-        <v>11.58207571779157</v>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0.77033447689480106</t>
+        </is>
       </c>
       <c r="J49">
-        <v>33389340245.64212</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>33.6466370282194</v>
-      </c>
-      <c r="L49">
-        <v>12840440189.97251</v>
-      </c>
-      <c r="M49">
-        <v>43.3600006103516</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>0.77033447689480106</t>
-        </is>
-      </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49">
         <v>55932206621.20316</v>
       </c>
     </row>
@@ -3058,30 +2313,15 @@
       <c r="H50">
         <v>49.7299995422363</v>
       </c>
-      <c r="I50">
-        <v>11.01505511492874</v>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.80489376800355406</t>
+        </is>
       </c>
       <c r="J50">
-        <v>75708515989.42387</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>10.3606376167421</v>
-      </c>
-      <c r="L50">
-        <v>36157139888.65079</v>
-      </c>
-      <c r="M50">
-        <v>49.7299995422363</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>0.80489376800355406</t>
-        </is>
-      </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50">
         <v>133455449588.3519</v>
       </c>
     </row>
@@ -3112,30 +2352,15 @@
       <c r="H51">
         <v>63.382999420166</v>
       </c>
-      <c r="I51">
-        <v>11.92112419459841</v>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0.60313604142930777</t>
+        </is>
       </c>
       <c r="J51">
-        <v>376299619712.63</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>38.0661393752312</v>
-      </c>
-      <c r="L51">
-        <v>373503858292.0137</v>
-      </c>
-      <c r="M51">
-        <v>63.382999420166</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>0.60313604142930777</t>
-        </is>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
         <v>860946502042.8248</v>
       </c>
     </row>
@@ -3166,30 +2391,15 @@
       <c r="H52">
         <v>51.773998260498</v>
       </c>
-      <c r="I52">
-        <v>8.907197885999363</v>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.47266666666666662</t>
+        </is>
       </c>
       <c r="J52">
-        <v>972726159786.7987</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>36.5361723506868</v>
-      </c>
-      <c r="L52">
-        <v>566737771345.3002</v>
-      </c>
-      <c r="M52">
-        <v>51.773998260498</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>0.47266666666666662</t>
-        </is>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
         <v>2011281369753.122</v>
       </c>
     </row>
@@ -3220,30 +2430,15 @@
       <c r="H53">
         <v>53.5750007629395</v>
       </c>
-      <c r="I53">
-        <v>18.53668772909164</v>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0.88706666666666667</t>
+        </is>
       </c>
       <c r="J53">
-        <v>169256929279.0187</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>8.4717240213997</v>
-      </c>
-      <c r="L53">
-        <v>62862303063.75945</v>
-      </c>
-      <c r="M53">
-        <v>53.5750007629395</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>0.88706666666666667</t>
-        </is>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53">
         <v>218233901560.6212</v>
       </c>
     </row>
@@ -3274,30 +2469,15 @@
       <c r="H54">
         <v>39.6100006103516</v>
       </c>
-      <c r="I54">
-        <v>5.731495457105259</v>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0.68345555555555548</t>
+        </is>
       </c>
       <c r="J54">
-        <v>218443465236.2953</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>0.937924132908299</v>
-      </c>
-      <c r="L54">
-        <v>159263106024.1043</v>
-      </c>
-      <c r="M54">
-        <v>39.6100006103516</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>0.68345555555555548</t>
-        </is>
-      </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54">
         <v>426269068422.8813</v>
       </c>
     </row>
@@ -3328,30 +2508,15 @@
       <c r="H55">
         <v>35.9790000915527</v>
       </c>
-      <c r="I55">
-        <v>10.9525442498999</v>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0.46655555555555556</t>
+        </is>
       </c>
       <c r="J55">
-        <v>90487451114.92281</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>0.9121046982250171</v>
-      </c>
-      <c r="L55">
-        <v>132667842195.5403</v>
-      </c>
-      <c r="M55">
-        <v>35.9790000915527</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>0.46655555555555556</t>
-        </is>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55">
         <v>233548370497.4271</v>
       </c>
     </row>
@@ -3382,30 +2547,15 @@
       <c r="H56">
         <v>70.6470031738281</v>
       </c>
-      <c r="I56">
-        <v>2.472101300911588</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0.84686666666666666</t>
+        </is>
       </c>
       <c r="J56">
-        <v>10404800433.65047</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>76.4229453172107</v>
-      </c>
-      <c r="L56">
-        <v>3415312511.914987</v>
-      </c>
-      <c r="M56">
-        <v>70.6470031738281</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>0.84686666666666666</t>
-        </is>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
         <v>16897076236.12882</v>
       </c>
     </row>
@@ -3436,30 +2586,15 @@
       <c r="H57">
         <v>42.3359985351563</v>
       </c>
-      <c r="I57">
-        <v>15.03181297126078</v>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0.78950579932692277</t>
+        </is>
       </c>
       <c r="J57">
-        <v>1440188275228.843</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>17.0903589998266</v>
-      </c>
-      <c r="L57">
-        <v>452241517951.7915</v>
-      </c>
-      <c r="M57">
-        <v>42.3359985351563</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>0.78950579932692277</t>
-        </is>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57">
         <v>2151814064348.153</v>
       </c>
     </row>
@@ -3490,30 +2625,15 @@
       <c r="H58">
         <v>55.8950004577637</v>
       </c>
-      <c r="I58">
-        <v>8.644599888573202</v>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0.66835555555555559</t>
+        </is>
       </c>
       <c r="J58">
-        <v>8397045103.191522</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>15.9884041757703</v>
-      </c>
-      <c r="L58">
-        <v>2541526756.779902</v>
-      </c>
-      <c r="M58">
-        <v>55.8950004577637</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>0.66835555555555559</t>
-        </is>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58">
         <v>13599147634.44267</v>
       </c>
     </row>
@@ -3544,30 +2664,15 @@
       <c r="H59">
         <v>35.1549987792969</v>
       </c>
-      <c r="I59">
-        <v>9.781738009456511</v>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0.69972509808010508</t>
+        </is>
       </c>
       <c r="J59">
-        <v>20924965633.80282</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>3.13049940961672</v>
-      </c>
-      <c r="L59">
-        <v>9385597887.323944</v>
-      </c>
-      <c r="M59">
-        <v>35.1549987792969</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>0.69972509808010508</t>
-        </is>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
         <v>35410165211.26761</v>
       </c>
     </row>
@@ -3598,30 +2703,15 @@
       <c r="H60">
         <v>57.3880004882813</v>
       </c>
-      <c r="I60">
-        <v>11.34819846679008</v>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0.80800000000000005</t>
+        </is>
       </c>
       <c r="J60">
-        <v>3413763249780.532</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>5.52698148992926</v>
-      </c>
-      <c r="L60">
-        <v>1340722955993.292</v>
-      </c>
-      <c r="M60">
-        <v>57.3880004882813</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>0.80800000000000005</t>
-        </is>
-      </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
         <v>5024116287795.757</v>
       </c>
     </row>
@@ -3652,30 +2742,15 @@
       <c r="H61">
         <v>67.2620010375977</v>
       </c>
-      <c r="I61">
-        <v>5.602891897125324</v>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0.76226666666666665</t>
+        </is>
       </c>
       <c r="J61">
-        <v>121421192499.4294</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>1.36259931747161</v>
-      </c>
-      <c r="L61">
-        <v>73530840435.13176</v>
-      </c>
-      <c r="M61">
-        <v>67.2620010375977</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>0.76226666666666665</t>
-        </is>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
         <v>198776951722.6523</v>
       </c>
     </row>
@@ -3706,30 +2781,15 @@
       <c r="H62">
         <v>59.0040016174316</v>
       </c>
-      <c r="I62">
-        <v>5.648378548765438</v>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0.51455555555555554</t>
+        </is>
       </c>
       <c r="J62">
-        <v>27949402994.92051</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>75.51816658000919</v>
-      </c>
-      <c r="L62">
-        <v>10717623080.40518</v>
-      </c>
-      <c r="M62">
-        <v>59.0040016174316</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>0.51455555555555554</t>
-        </is>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
         <v>60577101118.94379</v>
       </c>
     </row>
@@ -3760,30 +2820,15 @@
       <c r="H63">
         <v>80.734001159668</v>
       </c>
-      <c r="I63">
-        <v>7.89357623715533</v>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0.49517777777777783</t>
+        </is>
       </c>
       <c r="J63">
-        <v>6496632014.358341</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>67.95334783641169</v>
-      </c>
-      <c r="L63">
-        <v>4277014317.174192</v>
-      </c>
-      <c r="M63">
-        <v>80.734001159668</v>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>0.49517777777777783</t>
-        </is>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
         <v>15825602128.37152</v>
       </c>
     </row>
@@ -3814,30 +2859,15 @@
       <c r="H64">
         <v>58.640998840332</v>
       </c>
-      <c r="I64">
-        <v>6.358441112961442</v>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0.86450963550143889</t>
+        </is>
       </c>
       <c r="J64">
-        <v>767003007139.4871</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>2.83809759497136</v>
-      </c>
-      <c r="L64">
-        <v>489734185736.0692</v>
-      </c>
-      <c r="M64">
-        <v>58.640998840332</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>0.86450963550143889</t>
-        </is>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
         <v>1415782904738.714</v>
       </c>
     </row>
@@ -3868,30 +2898,15 @@
       <c r="H65">
         <v>66.5439987182617</v>
       </c>
-      <c r="I65">
-        <v>8.330406464755164</v>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0.64578749868604857</t>
+        </is>
       </c>
       <c r="J65">
-        <v>61865425158.11666</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>114388966971.1876</v>
-      </c>
-      <c r="M65">
-        <v>66.5439987182617</v>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>0.64578749868604857</t>
-        </is>
-      </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65">
         <v>177381856289.5291</v>
       </c>
     </row>
@@ -3922,30 +2937,15 @@
       <c r="H66">
         <v>43.9980010986328</v>
       </c>
-      <c r="I66">
-        <v>10.62692271181476</v>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0.63057612360708126</t>
+        </is>
       </c>
       <c r="J66">
-        <v>29913692943.68159</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>3.2035444681985</v>
-      </c>
-      <c r="L66">
-        <v>8892356364.245438</v>
-      </c>
-      <c r="M66">
-        <v>43.9980010986328</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>0.63057612360708126</t>
-        </is>
-      </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66">
         <v>45214945273.63184</v>
       </c>
     </row>
@@ -3976,30 +2976,15 @@
       <c r="H67">
         <v>49.6430015563965</v>
       </c>
-      <c r="I67">
-        <v>21.75568540839643</v>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0.73777777777777787</t>
+        </is>
       </c>
       <c r="J67">
-        <v>45154754692.50111</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>57.5851743334439</v>
-      </c>
-      <c r="L67">
-        <v>22456291784.83924</v>
-      </c>
-      <c r="M67">
-        <v>49.6430015563965</v>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>0.73777777777777787</t>
-        </is>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
         <v>78212640935.87318</v>
       </c>
     </row>
@@ -4030,30 +3015,15 @@
       <c r="H68">
         <v>52.851001739502</v>
       </c>
-      <c r="I68">
-        <v>11.80393227356453</v>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0.87665989134046884</t>
+        </is>
       </c>
       <c r="J68">
-        <v>28842232299.92909</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>28.072165590233</v>
-      </c>
-      <c r="L68">
-        <v>13340245010.8253</v>
-      </c>
-      <c r="M68">
-        <v>52.851001739502</v>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>0.87665989134046884</t>
-        </is>
-      </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68">
         <v>47915324320.30933</v>
       </c>
     </row>
@@ -4084,30 +3054,15 @@
       <c r="H69">
         <v>55.5550003051758</v>
       </c>
-      <c r="I69">
-        <v>14.84188428444811</v>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0.76211104398741669</t>
+        </is>
       </c>
       <c r="J69">
-        <v>51295275774.98268</v>
+        <v>1</v>
       </c>
       <c r="K69">
-        <v>6.96628859153078</v>
-      </c>
-      <c r="L69">
-        <v>7629513724.018509</v>
-      </c>
-      <c r="M69">
-        <v>55.5550003051758</v>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>0.76211104398741669</t>
-        </is>
-      </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69">
         <v>43806704956.46735</v>
       </c>
     </row>
@@ -4138,30 +3093,15 @@
       <c r="H70">
         <v>53.6459999084473</v>
       </c>
-      <c r="I70">
-        <v>10.98271498001039</v>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0.81318784414329781</t>
+        </is>
       </c>
       <c r="J70">
-        <v>20357702363.08281</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>40.2360612470879</v>
-      </c>
-      <c r="L70">
-        <v>6449987725.288631</v>
-      </c>
-      <c r="M70">
-        <v>53.6459999084473</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>0.81318784414329781</t>
-        </is>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70">
         <v>31280564598.81352</v>
       </c>
     </row>
@@ -4192,30 +3132,15 @@
       <c r="H71">
         <v>44.2039985656738</v>
       </c>
-      <c r="I71">
-        <v>13.66838507471416</v>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0.46785555555555552</t>
+        </is>
       </c>
       <c r="J71">
-        <v>56759216302.05917</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>11.7779580407644</v>
-      </c>
-      <c r="L71">
-        <v>29036674874.79628</v>
-      </c>
-      <c r="M71">
-        <v>44.2039985656738</v>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>0.46785555555555552</t>
-        </is>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
         <v>107209711763.7962</v>
       </c>
     </row>
@@ -4246,30 +3171,15 @@
       <c r="H72">
         <v>59.1389999389648</v>
       </c>
-      <c r="I72">
-        <v>11.47399588836942</v>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>0.6378331078423396</t>
+        </is>
       </c>
       <c r="J72">
-        <v>764515863231.1454</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>9.798903321896139</v>
-      </c>
-      <c r="L72">
-        <v>422398193868.723</v>
-      </c>
-      <c r="M72">
-        <v>59.1389999389648</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>0.6378331078423396</t>
-        </is>
-      </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
         <v>1288131102651.871</v>
       </c>
     </row>
@@ -4300,30 +3210,15 @@
       <c r="H73">
         <v>49.2280006408691</v>
       </c>
-      <c r="I73">
-        <v>18.68837606249214</v>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0.73253801133897578</t>
+        </is>
       </c>
       <c r="J73">
-        <v>8159812418.041355</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>3.9521731718218</v>
-      </c>
-      <c r="L73">
-        <v>1529054257.560077</v>
-      </c>
-      <c r="M73">
-        <v>49.2280006408691</v>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>0.73253801133897578</t>
-        </is>
-      </c>
-      <c r="O73">
-        <v>1</v>
-      </c>
-      <c r="P73">
         <v>10674616485.3425</v>
       </c>
     </row>
@@ -4354,30 +3249,15 @@
       <c r="H74">
         <v>77.51999664306641</v>
       </c>
-      <c r="I74">
-        <v>13.5120490968107</v>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0.37055555555555553</t>
+        </is>
       </c>
       <c r="J74">
-        <v>24709010980.75183</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>68.521696056376</v>
-      </c>
-      <c r="L74">
-        <v>22616455211.86811</v>
-      </c>
-      <c r="M74">
-        <v>77.51999664306641</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>0.37055555555555553</t>
-        </is>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
         <v>62851996076.49429</v>
       </c>
     </row>
@@ -4408,30 +3288,15 @@
       <c r="H75">
         <v>40.1590003967285</v>
       </c>
-      <c r="I75">
-        <v>10.01781003022142</v>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0.77355555555555555</t>
+        </is>
       </c>
       <c r="J75">
-        <v>2686426960.329043</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>45.9818980051695</v>
-      </c>
-      <c r="L75">
-        <v>656241210.0305161</v>
-      </c>
-      <c r="M75">
-        <v>40.1590003967285</v>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>0.77355555555555555</t>
-        </is>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75">
         <v>4648830171.155633</v>
       </c>
     </row>
@@ -4462,30 +3327,15 @@
       <c r="H76">
         <v>57.2610015869141</v>
       </c>
-      <c r="I76">
-        <v>6.503297473067612</v>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0.69366666666666665</t>
+        </is>
       </c>
       <c r="J76">
-        <v>5602704473.203633</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>3.96946969899904</v>
-      </c>
-      <c r="L76">
-        <v>3851061563.0219</v>
-      </c>
-      <c r="M76">
-        <v>57.2610015869141</v>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>0.69366666666666665</t>
-        </is>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
         <v>11232542839.97585</v>
       </c>
     </row>
@@ -4516,30 +3366,15 @@
       <c r="H77">
         <v>59.0859985351563</v>
       </c>
-      <c r="I77">
-        <v>2.660158753802834</v>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0.37205555555555558</t>
+        </is>
       </c>
       <c r="J77">
-        <v>8361480829.402253</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>88.85294877380809</v>
-      </c>
-      <c r="L77">
-        <v>3182851875.596041</v>
-      </c>
-      <c r="M77">
-        <v>59.0859985351563</v>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>0.37205555555555558</t>
-        </is>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
         <v>16759214291.90108</v>
       </c>
     </row>
@@ -4570,30 +3405,15 @@
       <c r="H78">
         <v>55.9620018005371</v>
       </c>
-      <c r="I78">
-        <v>17.30274784223457</v>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0.71809682846069345</t>
+        </is>
       </c>
       <c r="J78">
-        <v>8408378399.561094</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>10.6400921451124</v>
-      </c>
-      <c r="L78">
-        <v>2539253337.513389</v>
-      </c>
-      <c r="M78">
-        <v>55.9620018005371</v>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>0.71809682846069345</t>
-        </is>
-      </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78">
         <v>12479165033.83233</v>
       </c>
     </row>
@@ -4624,30 +3444,15 @@
       <c r="H79">
         <v>61.4230003356934</v>
       </c>
-      <c r="I79">
-        <v>8.588883173051459</v>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0.67054444444444439</t>
+        </is>
       </c>
       <c r="J79">
-        <v>182418955666.2287</v>
+        <v>1</v>
       </c>
       <c r="K79">
-        <v>4.76977388183345</v>
-      </c>
-      <c r="L79">
-        <v>125652173913.0435</v>
-      </c>
-      <c r="M79">
-        <v>61.4230003356934</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>0.67054444444444439</t>
-        </is>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79">
         <v>326700479696.9049</v>
       </c>
     </row>
@@ -4678,30 +3483,15 @@
       <c r="H80">
         <v>41.5009994506836</v>
       </c>
-      <c r="I80">
-        <v>13.32029709749196</v>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0.52018888888888892</t>
+        </is>
       </c>
       <c r="J80">
-        <v>7248034857.685184</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>27.617473336439</v>
-      </c>
-      <c r="L80">
-        <v>3773538188.653514</v>
-      </c>
-      <c r="M80">
-        <v>41.5009994506836</v>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>0.52018888888888892</t>
-        </is>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80">
         <v>12827449012.68809</v>
       </c>
     </row>
@@ -4732,30 +3522,15 @@
       <c r="H81">
         <v>63.1139984130859</v>
       </c>
-      <c r="I81">
-        <v>6.290531380670456</v>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0.19793333333333335</t>
+        </is>
       </c>
       <c r="J81">
-        <v>3018454132.661832</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>78.1316745654711</v>
-      </c>
-      <c r="L81">
-        <v>1638769050.291759</v>
-      </c>
-      <c r="M81">
-        <v>63.1139984130859</v>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>0.19793333333333335</t>
-        </is>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
         <v>8093702658.697652</v>
       </c>
     </row>
@@ -4786,30 +3561,15 @@
       <c r="H82">
         <v>53.4850006103516</v>
       </c>
-      <c r="I82">
-        <v>7.826596975472597</v>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0.42486000000000002</t>
+        </is>
       </c>
       <c r="J82">
-        <v>307859957452.6056</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>87.27475790908601</v>
-      </c>
-      <c r="L82">
-        <v>140098653002.2213</v>
-      </c>
-      <c r="M82">
-        <v>53.4850006103516</v>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>0.42486000000000002</t>
-        </is>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
         <v>548655750836.0001</v>
       </c>
     </row>
@@ -4840,30 +3600,15 @@
       <c r="H83">
         <v>60.6619987487793</v>
       </c>
-      <c r="I83">
-        <v>8.276291696224048</v>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>0.4839</t>
+        </is>
       </c>
       <c r="J83">
-        <v>5767927130.964717</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>51.8422812723536</v>
-      </c>
-      <c r="L83">
-        <v>2981805881.605153</v>
-      </c>
-      <c r="M83">
-        <v>60.6619987487793</v>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>0.4839</t>
-        </is>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
         <v>11566738824.44942</v>
       </c>
     </row>
@@ -4894,30 +3639,15 @@
       <c r="H84">
         <v>59.2939987182617</v>
       </c>
-      <c r="I84">
-        <v>11.33088732433357</v>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>0.89353229734632555</t>
+        </is>
       </c>
       <c r="J84">
-        <v>615495663637.6869</v>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>5.66845407866187</v>
-      </c>
-      <c r="L84">
-        <v>162524883267.3374</v>
-      </c>
-      <c r="M84">
-        <v>59.2939987182617</v>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>0.89353229734632555</t>
-        </is>
-      </c>
-      <c r="O84">
-        <v>1</v>
-      </c>
-      <c r="P84">
         <v>877351775356.7981</v>
       </c>
     </row>
@@ -4948,30 +3678,15 @@
       <c r="H85">
         <v>62.6619987487793</v>
       </c>
-      <c r="I85">
-        <v>11.73329375480054</v>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0.9099222222222223</t>
+        </is>
       </c>
       <c r="J85">
-        <v>268764929912.7213</v>
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>57.0886187990424</v>
-      </c>
-      <c r="L85">
-        <v>169617508595.6095</v>
-      </c>
-      <c r="M85">
-        <v>62.6619987487793</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>0.9099222222222223</t>
-        </is>
-      </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="P85">
         <v>516688389314.9957</v>
       </c>
     </row>
@@ -5002,30 +3717,15 @@
       <c r="H86">
         <v>80.53900146484381</v>
       </c>
-      <c r="I86">
-        <v>5.783977562216433</v>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>0.45231111111111111</t>
+        </is>
       </c>
       <c r="J86">
-        <v>9086465374.026091</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>84.3767955936285</v>
-      </c>
-      <c r="L86">
-        <v>2766701008.222994</v>
-      </c>
-      <c r="M86">
-        <v>80.53900146484381</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>0.45231111111111111</t>
-        </is>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
         <v>20336447095.27514</v>
       </c>
     </row>
@@ -5056,30 +3756,15 @@
       <c r="H87">
         <v>64.1669998168945</v>
       </c>
-      <c r="I87">
-        <v>8.154195198860203</v>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0.91676666666666673</t>
+        </is>
       </c>
       <c r="J87">
-        <v>131380139922.0201</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>30.8647502104148</v>
-      </c>
-      <c r="L87">
-        <v>40017144595.3047</v>
-      </c>
-      <c r="M87">
-        <v>64.1669998168945</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>0.91676666666666673</t>
-        </is>
-      </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="P87">
         <v>192599618394.4921</v>
       </c>
     </row>
@@ -5110,30 +3795,15 @@
       <c r="H88">
         <v>56.2949981689453</v>
       </c>
-      <c r="I88">
-        <v>6.909017126552142</v>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>0.60327911660533562</t>
+        </is>
       </c>
       <c r="J88">
-        <v>33221527628.62991</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>52966882843.258</v>
-      </c>
-      <c r="M88">
-        <v>56.2949981689453</v>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>0.60327911660533562</t>
-        </is>
-      </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
-      <c r="P88">
         <v>76688491266.39323</v>
       </c>
     </row>
@@ -5164,30 +3834,15 @@
       <c r="H89">
         <v>50.7169990539551</v>
       </c>
-      <c r="I89">
-        <v>9.950719693421036</v>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>0.37166734271579327</t>
+        </is>
       </c>
       <c r="J89">
-        <v>126337626276.1108</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>47.2055915020146</v>
-      </c>
-      <c r="L89">
-        <v>48933664082.48663</v>
-      </c>
-      <c r="M89">
-        <v>50.7169990539551</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>0.37166734271579327</t>
-        </is>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
         <v>258227372243.2851</v>
       </c>
     </row>
@@ -5218,30 +3873,15 @@
       <c r="H90">
         <v>62.3320007324219</v>
       </c>
-      <c r="I90">
-        <v>19.39794923645536</v>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>0.65741111111111117</t>
+        </is>
       </c>
       <c r="J90">
-        <v>32818730500</v>
+        <v>1</v>
       </c>
       <c r="K90">
-        <v>19.7707869252438</v>
-      </c>
-      <c r="L90">
-        <v>12826435100</v>
-      </c>
-      <c r="M90">
-        <v>62.3320007324219</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>0.65741111111111117</t>
-        </is>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90">
         <v>46648373099.99999</v>
       </c>
     </row>
@@ -5272,30 +3912,15 @@
       <c r="H91">
         <v>70.8939971923828</v>
       </c>
-      <c r="I91">
-        <v>15.84216446765762</v>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0.66433787875705286</t>
+        </is>
       </c>
       <c r="J91">
-        <v>105475167312.434</v>
+        <v>1</v>
       </c>
       <c r="K91">
-        <v>25.6357006371001</v>
-      </c>
-      <c r="L91">
-        <v>63641070799.57732</v>
-      </c>
-      <c r="M91">
-        <v>70.8939971923828</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>0.66433787875705286</t>
-        </is>
-      </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-      <c r="P91">
         <v>191721175527.1321</v>
       </c>
     </row>
@@ -5326,30 +3951,15 @@
       <c r="H92">
         <v>60.3269996643066</v>
       </c>
-      <c r="I92">
-        <v>14.56720703638924</v>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>0.60998405554284341</t>
+        </is>
       </c>
       <c r="J92">
-        <v>163166634277.8818</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>28.7212885992368</v>
-      </c>
-      <c r="L92">
-        <v>89171661096.25995</v>
-      </c>
-      <c r="M92">
-        <v>60.3269996643066</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>0.60998405554284341</t>
-        </is>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
         <v>344878850708.9595</v>
       </c>
     </row>
@@ -5380,30 +3990,15 @@
       <c r="H93">
         <v>51.8129997253418</v>
       </c>
-      <c r="I93">
-        <v>10.39355337326273</v>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>0.82469993167453226</t>
+        </is>
       </c>
       <c r="J93">
-        <v>308656249587.235</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>11.5473555721006</v>
-      </c>
-      <c r="L93">
-        <v>160508895904.0535</v>
-      </c>
-      <c r="M93">
-        <v>51.8129997253418</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>0.82469993167453226</t>
-        </is>
-      </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-      <c r="P93">
         <v>524961492345.6915</v>
       </c>
     </row>
@@ -5434,30 +4029,15 @@
       <c r="H94">
         <v>50.568000793457</v>
       </c>
-      <c r="I94">
-        <v>14.158805828813</v>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>0.72761463589138442</t>
+        </is>
       </c>
       <c r="J94">
-        <v>152691402106.3072</v>
+        <v>1</v>
       </c>
       <c r="K94">
-        <v>30.49879177365</v>
-      </c>
-      <c r="L94">
-        <v>43471041320.00501</v>
-      </c>
-      <c r="M94">
-        <v>50.568000793457</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>0.72761463589138442</t>
-        </is>
-      </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
-      <c r="P94">
         <v>225699395968.4866</v>
       </c>
     </row>
@@ -5488,30 +4068,15 @@
       <c r="H95">
         <v>67.129997253418</v>
       </c>
-      <c r="I95">
-        <v>11.35489866156407</v>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0.5873222222222223</t>
+        </is>
       </c>
       <c r="J95">
-        <v>14101337324.3691</v>
+        <v>1</v>
       </c>
       <c r="K95">
-        <v>63.116914548218</v>
-      </c>
-      <c r="L95">
-        <v>8036961626.278852</v>
-      </c>
-      <c r="M95">
-        <v>67.129997253418</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>0.5873222222222223</t>
-        </is>
-      </c>
-      <c r="O95">
-        <v>1</v>
-      </c>
-      <c r="P95">
         <v>29343966440.72911</v>
       </c>
     </row>
@@ -5542,30 +4107,15 @@
       <c r="H96">
         <v>84.41200256347661</v>
       </c>
-      <c r="I96">
-        <v>6.858577755964489</v>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0.68568674723307299</t>
+        </is>
       </c>
       <c r="J96">
-        <v>62124725274.72527</v>
+        <v>1</v>
       </c>
       <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>143858241758.2418</v>
-      </c>
-      <c r="M96">
-        <v>84.41200256347661</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>0.68568674723307299</t>
-        </is>
-      </c>
-      <c r="O96">
-        <v>1</v>
-      </c>
-      <c r="P96">
         <v>196924225274.7253</v>
       </c>
     </row>
@@ -5596,30 +4146,15 @@
       <c r="H97">
         <v>52.2449989318848</v>
       </c>
-      <c r="I97">
-        <v>13.06614507417425</v>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0.74789428710937667</t>
+        </is>
       </c>
       <c r="J97">
-        <v>104221814164.5766</v>
+        <v>1</v>
       </c>
       <c r="K97">
-        <v>24.3415075400388</v>
-      </c>
-      <c r="L97">
-        <v>62874208766.27254</v>
-      </c>
-      <c r="M97">
-        <v>52.2449989318848</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>0.74789428710937667</t>
-        </is>
-      </c>
-      <c r="O97">
-        <v>1</v>
-      </c>
-      <c r="P97">
         <v>196966762689.5975</v>
       </c>
     </row>
@@ -5650,30 +4185,15 @@
       <c r="H98">
         <v>60.1730003356934</v>
       </c>
-      <c r="I98">
-        <v>5.235722680421947</v>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>0.77995555555555551</t>
+        </is>
       </c>
       <c r="J98">
-        <v>1146623625664.105</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>3.45593226162695</v>
-      </c>
-      <c r="L98">
-        <v>575848408560.2927</v>
-      </c>
-      <c r="M98">
-        <v>60.1730003356934</v>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>0.77995555555555551</t>
-        </is>
-      </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-      <c r="P98">
         <v>1996422986274.906</v>
       </c>
     </row>
@@ -5704,30 +4224,15 @@
       <c r="H99">
         <v>51.4560012817383</v>
       </c>
-      <c r="I99">
-        <v>7.586026708167648</v>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0.72317409718831382</t>
+        </is>
       </c>
       <c r="J99">
-        <v>307057066666.6667</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>0.00600874301900143</v>
-      </c>
-      <c r="L99">
-        <v>432449866666.6667</v>
-      </c>
-      <c r="M99">
-        <v>51.4560012817383</v>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>0.72317409718831382</t>
-        </is>
-      </c>
-      <c r="O99">
-        <v>1</v>
-      </c>
-      <c r="P99">
         <v>769903500653.7147</v>
       </c>
     </row>
@@ -5758,30 +4263,15 @@
       <c r="H100">
         <v>41.8629989624023</v>
       </c>
-      <c r="I100">
-        <v>11.10917913968298</v>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>0.30595555555555554</t>
+        </is>
       </c>
       <c r="J100">
-        <v>37345807613.86812</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>62.4167635389548</v>
-      </c>
-      <c r="L100">
-        <v>2074759957.468319</v>
-      </c>
-      <c r="M100">
-        <v>41.8629989624023</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>0.30595555555555554</t>
-        </is>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
         <v>74213617110.28604</v>
       </c>
     </row>
@@ -5812,30 +4302,15 @@
       <c r="H101">
         <v>50.9809989929199</v>
       </c>
-      <c r="I101">
-        <v>8.597900298293782</v>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0.36781111111111109</t>
+        </is>
       </c>
       <c r="J101">
-        <v>8079802335.757551</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>43.297169647721</v>
-      </c>
-      <c r="L101">
-        <v>3220012660.697283</v>
-      </c>
-      <c r="M101">
-        <v>50.9809989929199</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>0.36781111111111109</t>
-        </is>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
         <v>14931131798.51306</v>
       </c>
     </row>
@@ -5866,30 +4341,15 @@
       <c r="H102">
         <v>65.4970016479492</v>
       </c>
-      <c r="I102">
-        <v>16.51633348268084</v>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>0.76777777777777778</t>
+        </is>
       </c>
       <c r="J102">
-        <v>216347644226.975</v>
+        <v>1</v>
       </c>
       <c r="K102">
-        <v>0.621625222852765</v>
-      </c>
-      <c r="L102">
-        <v>74627338015.94193</v>
-      </c>
-      <c r="M102">
-        <v>65.4970016479492</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>0.76777777777777778</t>
-        </is>
-      </c>
-      <c r="O102">
-        <v>1</v>
-      </c>
-      <c r="P102">
         <v>300231473443.2957</v>
       </c>
     </row>
@@ -5920,30 +4380,15 @@
       <c r="H103">
         <v>58.9449996948242</v>
       </c>
-      <c r="I103">
-        <v>12.5420585614267</v>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>0.55326187875535737</t>
+        </is>
       </c>
       <c r="J103">
-        <v>14225850000</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>28.1655209118515</v>
-      </c>
-      <c r="L103">
-        <v>6156379999.999999</v>
-      </c>
-      <c r="M103">
-        <v>58.9449996948242</v>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>0.55326187875535737</t>
-        </is>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="P103">
         <v>24020160000</v>
       </c>
     </row>
@@ -5974,30 +4419,15 @@
       <c r="H104">
         <v>41.7789993286133</v>
       </c>
-      <c r="I104">
-        <v>7.42486733427956</v>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>0.69544444444444442</t>
+        </is>
       </c>
       <c r="J104">
-        <v>22289248495.28253</v>
+        <v>1</v>
       </c>
       <c r="K104">
-        <v>23.4292912343855</v>
-      </c>
-      <c r="L104">
-        <v>11135789370.09433</v>
-      </c>
-      <c r="M104">
-        <v>41.7789993286133</v>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>0.69544444444444442</t>
-        </is>
-      </c>
-      <c r="O104">
-        <v>1</v>
-      </c>
-      <c r="P104">
         <v>42422068939.30568</v>
       </c>
     </row>
@@ -6028,30 +4458,15 @@
       <c r="H105">
         <v>50.6860008239746</v>
       </c>
-      <c r="I105">
-        <v>12.81581258493545</v>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>0.58838028907775863</t>
+        </is>
       </c>
       <c r="J105">
-        <v>2739090909.090909</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>25.3825345377523</v>
-      </c>
-      <c r="L105">
-        <v>1585151515.151515</v>
-      </c>
-      <c r="M105">
-        <v>50.6860008239746</v>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>0.58838028907775863</t>
-        </is>
-      </c>
-      <c r="O105">
-        <v>1</v>
-      </c>
-      <c r="P105">
         <v>5171206060.60606</v>
       </c>
     </row>
@@ -6082,30 +4497,15 @@
       <c r="H106">
         <v>52.1640014648438</v>
       </c>
-      <c r="I106">
-        <v>9.57740768909469</v>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>0.86308333079020338</t>
+        </is>
       </c>
       <c r="J106">
-        <v>27602754387.6063</v>
+        <v>1</v>
       </c>
       <c r="K106">
-        <v>22.6778944212989</v>
-      </c>
-      <c r="L106">
-        <v>14126016336.245</v>
-      </c>
-      <c r="M106">
-        <v>52.1640014648438</v>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>0.86308333079020338</t>
-        </is>
-      </c>
-      <c r="O106">
-        <v>1</v>
-      </c>
-      <c r="P106">
         <v>49478657673.45318</v>
       </c>
     </row>
@@ -6136,30 +4536,15 @@
       <c r="H107">
         <v>59.439998626709</v>
       </c>
-      <c r="I107">
-        <v>9.34367110086137</v>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>0.83013401108026019</t>
+        </is>
       </c>
       <c r="J107">
-        <v>370572172134.8213</v>
+        <v>1</v>
       </c>
       <c r="K107">
-        <v>49.5374589185318</v>
-      </c>
-      <c r="L107">
-        <v>130839401030.6401</v>
-      </c>
-      <c r="M107">
-        <v>59.439998626709</v>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>0.83013401108026019</t>
-        </is>
-      </c>
-      <c r="O107">
-        <v>1</v>
-      </c>
-      <c r="P107">
         <v>586570195684.6046</v>
       </c>
     </row>
@@ -6190,30 +4575,15 @@
       <c r="H108">
         <v>75.3280029296875</v>
       </c>
-      <c r="I108">
-        <v>3.034053529411703</v>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>0.51442222222222223</t>
+        </is>
       </c>
       <c r="J108">
-        <v>1827336383.402607</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>72.82531866998831</v>
-      </c>
-      <c r="L108">
-        <v>774151674.2008233</v>
-      </c>
-      <c r="M108">
-        <v>75.3280029296875</v>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>0.51442222222222223</t>
-        </is>
-      </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-      <c r="P108">
         <v>4032303011.437759</v>
       </c>
     </row>
@@ -6244,30 +4614,15 @@
       <c r="H109">
         <v>70.9059982299805</v>
       </c>
-      <c r="I109">
-        <v>7.943902617501865</v>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>0.60796528392367888</t>
+        </is>
       </c>
       <c r="J109">
-        <v>215383900147.1684</v>
+        <v>1</v>
       </c>
       <c r="K109">
-        <v>23.5859684186144</v>
-      </c>
-      <c r="L109">
-        <v>150184391529.5045</v>
-      </c>
-      <c r="M109">
-        <v>70.9059982299805</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>0.60796528392367888</t>
-        </is>
-      </c>
-      <c r="O109">
-        <v>1</v>
-      </c>
-      <c r="P109">
         <v>385376634092.5745</v>
       </c>
     </row>
@@ -6298,30 +4653,15 @@
       <c r="H110">
         <v>60.9739990234375</v>
       </c>
-      <c r="I110">
-        <v>7.998179565070717</v>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>0.63944444444444448</t>
+        </is>
       </c>
       <c r="J110">
-        <v>3722780298.120544</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>40.7136405668704</v>
-      </c>
-      <c r="L110">
-        <v>2059867141.931303</v>
-      </c>
-      <c r="M110">
-        <v>60.9739990234375</v>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>0.63944444444444448</t>
-        </is>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
         <v>11420090246.27349</v>
       </c>
     </row>
@@ -6352,30 +4692,15 @@
       <c r="H111">
         <v>60.8610000610352</v>
       </c>
-      <c r="I111">
-        <v>2.303814578618622</v>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>0.70032068888346333</t>
+        </is>
       </c>
       <c r="J111">
-        <v>12880061163.03382</v>
+        <v>1</v>
       </c>
       <c r="K111">
-        <v>0.280935357038369</v>
-      </c>
-      <c r="L111">
-        <v>12279540029.02124</v>
-      </c>
-      <c r="M111">
-        <v>60.8610000610352</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>0.70032068888346333</t>
-        </is>
-      </c>
-      <c r="O111">
-        <v>1</v>
-      </c>
-      <c r="P111">
         <v>23740408200.83943</v>
       </c>
     </row>
@@ -6406,30 +4731,15 @@
       <c r="H112">
         <v>40.1269989013672</v>
       </c>
-      <c r="I112">
-        <v>12.00237843657562</v>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>0.62145555555555554</t>
+        </is>
       </c>
       <c r="J112">
-        <v>27011309418.62519</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>12.9240743677517</v>
-      </c>
-      <c r="L112">
-        <v>12968133356.89462</v>
-      </c>
-      <c r="M112">
-        <v>40.1269989013672</v>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>0.62145555555555554</t>
-        </is>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="P112">
         <v>45895623490.60493</v>
       </c>
     </row>
@@ -6460,30 +4770,15 @@
       <c r="H113">
         <v>45.3240013122559</v>
       </c>
-      <c r="I113">
-        <v>14.64763040001459</v>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>0.65202369689941397</t>
+        </is>
       </c>
       <c r="J113">
-        <v>501258063757.0437</v>
+        <v>1</v>
       </c>
       <c r="K113">
-        <v>11.5781689449301</v>
-      </c>
-      <c r="L113">
-        <v>263390194615.8231</v>
-      </c>
-      <c r="M113">
-        <v>45.3240013122559</v>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>0.65202369689941397</t>
-        </is>
-      </c>
-      <c r="O113">
-        <v>1</v>
-      </c>
-      <c r="P113">
         <v>925992774215.0314</v>
       </c>
     </row>
@@ -6514,30 +4809,15 @@
       <c r="H114">
         <v>76.963996887207</v>
       </c>
-      <c r="I114">
-        <v>5.167322158527033</v>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>0.42588888888888887</t>
+        </is>
       </c>
       <c r="J114">
-        <v>19713252896.22852</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>86.6734453214743</v>
-      </c>
-      <c r="L114">
-        <v>11194766398.76131</v>
-      </c>
-      <c r="M114">
-        <v>76.963996887207</v>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>0.42588888888888887</t>
-        </is>
-      </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="P114">
         <v>47678502144.34119</v>
       </c>
     </row>
@@ -6568,30 +4848,15 @@
       <c r="H115">
         <v>53.4739990234375</v>
       </c>
-      <c r="I115">
-        <v>3.533252065752586</v>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>0.79551111111111106</t>
+        </is>
       </c>
       <c r="J115">
-        <v>72304003634.31398</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>3.49771846558718</v>
-      </c>
-      <c r="L115">
-        <v>30464132181.34554</v>
-      </c>
-      <c r="M115">
-        <v>53.4739990234375</v>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>0.79551111111111106</t>
-        </is>
-      </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-      <c r="P115">
         <v>131944938460.6325</v>
       </c>
     </row>
@@ -6622,30 +4887,15 @@
       <c r="H116">
         <v>61.0830001831055</v>
       </c>
-      <c r="I116">
-        <v>15.15393945529099</v>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>0.71226242913140192</t>
+        </is>
       </c>
       <c r="J116">
-        <v>32287299109.52422</v>
+        <v>1</v>
       </c>
       <c r="K116">
-        <v>55.4313667685738</v>
-      </c>
-      <c r="L116">
-        <v>14137662199.94838</v>
-      </c>
-      <c r="M116">
-        <v>61.0830001831055</v>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>0.71226242913140192</t>
-        </is>
-      </c>
-      <c r="O116">
-        <v>1</v>
-      </c>
-      <c r="P116">
         <v>55300141826.5508</v>
       </c>
     </row>
@@ -6676,30 +4926,15 @@
       <c r="H117">
         <v>58.3740005493164</v>
       </c>
-      <c r="I117">
-        <v>7.848212241602171</v>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>0.88975920702848532</t>
+        </is>
       </c>
       <c r="J117">
-        <v>13109798000000</v>
+        <v>1</v>
       </c>
       <c r="K117">
-        <v>8.913332384660251</v>
-      </c>
-      <c r="L117">
-        <v>3512633000000</v>
-      </c>
-      <c r="M117">
-        <v>58.3740005493164</v>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>0.88975920702848532</t>
-        </is>
-      </c>
-      <c r="O117">
-        <v>1</v>
-      </c>
-      <c r="P117">
         <v>17899139000000</v>
       </c>
     </row>
@@ -6730,30 +4965,15 @@
       <c r="H118">
         <v>39.5919990539551</v>
       </c>
-      <c r="I118">
-        <v>4.834636548011828</v>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>0.69544716386583105</t>
+        </is>
       </c>
       <c r="J118">
-        <v>214215356547.2187</v>
+        <v>1</v>
       </c>
       <c r="K118">
-        <v>16.587154515855</v>
-      </c>
-      <c r="L118">
-        <v>93094621614.89767</v>
-      </c>
-      <c r="M118">
-        <v>39.5919990539551</v>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>0.69544716386583105</t>
-        </is>
-      </c>
-      <c r="O118">
-        <v>1</v>
-      </c>
-      <c r="P118">
         <v>341494006099.8646</v>
       </c>
     </row>

--- a/Masterdata 1212017.xlsx
+++ b/Masterdata 1212017.xlsx
@@ -441,10 +441,8 @@
       <c r="H2">
         <v>41.5670013427734</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.60851936340332036</t>
-        </is>
+      <c r="I2">
+        <v>0.6085193634033204</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -480,10 +478,8 @@
       <c r="H3">
         <v>76.9599990844727</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.67321495406717657</t>
-        </is>
+      <c r="I3">
+        <v>0.6732149540671766</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -519,10 +515,8 @@
       <c r="H4">
         <v>56.4790000915527</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.78335559705298508</t>
-        </is>
+      <c r="I4">
+        <v>0.7833555970529851</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -558,10 +552,8 @@
       <c r="H5">
         <v>51.9469985961914</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.70136666666666669</t>
-        </is>
+      <c r="I5">
+        <v>0.7013666666666667</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -597,10 +589,8 @@
       <c r="H6">
         <v>60.8629989624023</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.92653552042643339</t>
-        </is>
+      <c r="I6">
+        <v>0.9265355204264334</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -636,10 +626,8 @@
       <c r="H7">
         <v>56.8409996032715</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.79448102740988591</t>
-        </is>
+      <c r="I7">
+        <v>0.7944810274098859</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -675,10 +663,8 @@
       <c r="H8">
         <v>61.5309982299805</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.69977777777777783</t>
-        </is>
+      <c r="I8">
+        <v>0.6997777777777778</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -714,10 +700,8 @@
       <c r="H9">
         <v>49.0349998474121</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.81229168814412056</t>
-        </is>
+      <c r="I9">
+        <v>0.8122916881441206</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -753,10 +737,8 @@
       <c r="H10">
         <v>70.9010009765625</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.41355555555555557</t>
-        </is>
+      <c r="I10">
+        <v>0.4135555555555556</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -792,10 +774,8 @@
       <c r="H11">
         <v>59.443000793457</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.44688044481397404</t>
-        </is>
+      <c r="I11">
+        <v>0.446880444813974</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -831,10 +811,8 @@
       <c r="H12">
         <v>47.943000793457</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.74940720495510904</t>
-        </is>
+      <c r="I12">
+        <v>0.749407204955109</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -870,10 +848,8 @@
       <c r="H13">
         <v>68.3669967651367</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.71396666666666664</t>
-        </is>
+      <c r="I13">
+        <v>0.7139666666666666</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -909,10 +885,8 @@
       <c r="H14">
         <v>33.5130004882813</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.65531820777777772</t>
-        </is>
+      <c r="I14">
+        <v>0.6553182077777777</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -948,10 +922,8 @@
       <c r="H15">
         <v>60.4379997253418</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.81998416444444444</t>
-        </is>
+      <c r="I15">
+        <v>0.8199841644444444</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -987,10 +959,8 @@
       <c r="H16">
         <v>70.536003112793</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.67349999999999999</t>
-        </is>
+      <c r="I16">
+        <v>0.6735</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1026,10 +996,8 @@
       <c r="H17">
         <v>62.6829986572266</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.66130562900764922</t>
-        </is>
+      <c r="I17">
+        <v>0.6613056290076492</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1065,10 +1033,8 @@
       <c r="H18">
         <v>62.6370010375977</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.69211111111111112</t>
-        </is>
+      <c r="I18">
+        <v>0.6921111111111111</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1104,10 +1070,8 @@
       <c r="H19">
         <v>64.0309982299805</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.61899999999999999</t>
-        </is>
+      <c r="I19">
+        <v>0.619</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1143,10 +1107,8 @@
       <c r="H20">
         <v>65.5920028686523</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.84408920885422867</t>
-        </is>
+      <c r="I20">
+        <v>0.8440892088542287</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1182,10 +1144,8 @@
       <c r="H21">
         <v>58.3230018615723</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.74567525651719846</t>
-        </is>
+      <c r="I21">
+        <v>0.7456752565171985</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1221,10 +1181,8 @@
       <c r="H22">
         <v>67.6999969482422</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.60966666666666669</t>
-        </is>
+      <c r="I22">
+        <v>0.6096666666666667</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1260,10 +1218,8 @@
       <c r="H23">
         <v>72.8190002441406</v>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.48578888888888894</t>
-        </is>
+      <c r="I23">
+        <v>0.4857888888888889</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1299,10 +1255,8 @@
       <c r="H24">
         <v>68.4700012207031</v>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.37177777777777776</t>
-        </is>
+      <c r="I24">
+        <v>0.3717777777777778</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1338,10 +1292,8 @@
       <c r="H25">
         <v>62.8139991760254</v>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.51133333333333331</t>
-        </is>
+      <c r="I25">
+        <v>0.5113333333333333</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1377,10 +1329,8 @@
       <c r="H26">
         <v>62.2599983215332</v>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.60222241083780936</t>
-        </is>
+      <c r="I26">
+        <v>0.6022224108378094</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1416,10 +1366,8 @@
       <c r="H27">
         <v>55.6510009765625</v>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.65392160415649403</t>
-        </is>
+      <c r="I27">
+        <v>0.653921604156494</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1455,10 +1403,8 @@
       <c r="H28">
         <v>53.4379997253418</v>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.77619837654961565</t>
-        </is>
+      <c r="I28">
+        <v>0.7761983765496157</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1494,10 +1440,8 @@
       <c r="H29">
         <v>55.7999992370605</v>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.86622222222222223</t>
-        </is>
+      <c r="I29">
+        <v>0.8662222222222222</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1533,10 +1477,8 @@
       <c r="H30">
         <v>57.3619995117188</v>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.88437195231119781</t>
-        </is>
+      <c r="I30">
+        <v>0.8843719523111978</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1572,10 +1514,8 @@
       <c r="H31">
         <v>58.0519981384277</v>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.87282605528397295</t>
-        </is>
+      <c r="I31">
+        <v>0.8728260552839729</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1611,10 +1551,8 @@
       <c r="H32">
         <v>55.8320007324219</v>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.59017054239908862</t>
-        </is>
+      <c r="I32">
+        <v>0.5901705423990886</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1650,10 +1588,8 @@
       <c r="H33">
         <v>38.9459991455078</v>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0.64258888888888888</t>
-        </is>
+      <c r="I33">
+        <v>0.6425888888888889</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1689,10 +1625,8 @@
       <c r="H34">
         <v>61.6769981384277</v>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.59383750000000002</t>
-        </is>
+      <c r="I34">
+        <v>0.5938375</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -1728,10 +1662,8 @@
       <c r="H35">
         <v>42.773998260498</v>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0.57344444444444442</t>
-        </is>
+      <c r="I35">
+        <v>0.5734444444444444</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1767,10 +1699,8 @@
       <c r="H36">
         <v>44.3320007324219</v>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0.79439697265625009</t>
-        </is>
+      <c r="I36">
+        <v>0.7943969726562501</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -1806,10 +1736,8 @@
       <c r="H37">
         <v>57.2680015563965</v>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>0.85853333333333337</t>
-        </is>
+      <c r="I37">
+        <v>0.8585333333333334</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -1845,10 +1773,8 @@
       <c r="H38">
         <v>78.80999755859381</v>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0.3165219730801051</t>
-        </is>
+      <c r="I38">
+        <v>0.3165219730801051</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1884,10 +1810,8 @@
       <c r="H39">
         <v>53.7210006713867</v>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0.81508888888888886</t>
-        </is>
+      <c r="I39">
+        <v>0.8150888888888889</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -1923,10 +1847,8 @@
       <c r="H40">
         <v>49.7200012207031</v>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>0.81554941601223441</t>
-        </is>
+      <c r="I40">
+        <v>0.8155494160122344</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -1962,10 +1884,8 @@
       <c r="H41">
         <v>38.6450004577637</v>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>0.58933333333333326</t>
-        </is>
+      <c r="I41">
+        <v>0.5893333333333333</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2001,10 +1921,8 @@
       <c r="H42">
         <v>58.882999420166</v>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>0.86026014506022219</t>
-        </is>
+      <c r="I42">
+        <v>0.8602601450602222</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2040,10 +1958,8 @@
       <c r="H43">
         <v>58.5789985656738</v>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>0.77033333333333331</t>
-        </is>
+      <c r="I43">
+        <v>0.7703333333333333</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2079,10 +1995,8 @@
       <c r="H44">
         <v>72.8710021972656</v>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0.55274444444444437</t>
-        </is>
+      <c r="I44">
+        <v>0.5527444444444444</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2118,10 +2032,8 @@
       <c r="H45">
         <v>38.0979995727539</v>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>0.79698855082193998</t>
-        </is>
+      <c r="I45">
+        <v>0.79698855082194</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2157,10 +2069,8 @@
       <c r="H46">
         <v>59.4739990234375</v>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>0.48387988938225657</t>
-        </is>
+      <c r="I46">
+        <v>0.4838798893822566</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2196,10 +2106,8 @@
       <c r="H47">
         <v>58.6940002441406</v>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>0.76736666666666675</t>
-        </is>
+      <c r="I47">
+        <v>0.7673666666666668</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2235,10 +2143,8 @@
       <c r="H48">
         <v>61.9020004272461</v>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>0.5049631489647759</t>
-        </is>
+      <c r="I48">
+        <v>0.5049631489647759</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2274,10 +2180,8 @@
       <c r="H49">
         <v>43.3600006103516</v>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0.77033447689480106</t>
-        </is>
+      <c r="I49">
+        <v>0.7703344768948011</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2313,10 +2217,8 @@
       <c r="H50">
         <v>49.7299995422363</v>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>0.80489376800355406</t>
-        </is>
+      <c r="I50">
+        <v>0.8048937680035541</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2352,10 +2254,8 @@
       <c r="H51">
         <v>63.382999420166</v>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>0.60313604142930777</t>
-        </is>
+      <c r="I51">
+        <v>0.6031360414293078</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2391,10 +2291,8 @@
       <c r="H52">
         <v>51.773998260498</v>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>0.47266666666666662</t>
-        </is>
+      <c r="I52">
+        <v>0.4726666666666666</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2430,10 +2328,8 @@
       <c r="H53">
         <v>53.5750007629395</v>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>0.88706666666666667</t>
-        </is>
+      <c r="I53">
+        <v>0.8870666666666667</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2469,10 +2365,8 @@
       <c r="H54">
         <v>39.6100006103516</v>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>0.68345555555555548</t>
-        </is>
+      <c r="I54">
+        <v>0.6834555555555555</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2508,10 +2402,8 @@
       <c r="H55">
         <v>35.9790000915527</v>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>0.46655555555555556</t>
-        </is>
+      <c r="I55">
+        <v>0.4665555555555556</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2547,10 +2439,8 @@
       <c r="H56">
         <v>70.6470031738281</v>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>0.84686666666666666</t>
-        </is>
+      <c r="I56">
+        <v>0.8468666666666667</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2586,10 +2476,8 @@
       <c r="H57">
         <v>42.3359985351563</v>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0.78950579932692277</t>
-        </is>
+      <c r="I57">
+        <v>0.7895057993269228</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2625,10 +2513,8 @@
       <c r="H58">
         <v>55.8950004577637</v>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>0.66835555555555559</t>
-        </is>
+      <c r="I58">
+        <v>0.6683555555555556</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2664,10 +2550,8 @@
       <c r="H59">
         <v>35.1549987792969</v>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>0.69972509808010508</t>
-        </is>
+      <c r="I59">
+        <v>0.6997250980801051</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2703,10 +2587,8 @@
       <c r="H60">
         <v>57.3880004882813</v>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>0.80800000000000005</t>
-        </is>
+      <c r="I60">
+        <v>0.8080000000000001</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -2742,10 +2624,8 @@
       <c r="H61">
         <v>67.2620010375977</v>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>0.76226666666666665</t>
-        </is>
+      <c r="I61">
+        <v>0.7622666666666666</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -2781,10 +2661,8 @@
       <c r="H62">
         <v>59.0040016174316</v>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>0.51455555555555554</t>
-        </is>
+      <c r="I62">
+        <v>0.5145555555555555</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2820,10 +2698,8 @@
       <c r="H63">
         <v>80.734001159668</v>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>0.49517777777777783</t>
-        </is>
+      <c r="I63">
+        <v>0.4951777777777778</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2859,10 +2735,8 @@
       <c r="H64">
         <v>58.640998840332</v>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>0.86450963550143889</t>
-        </is>
+      <c r="I64">
+        <v>0.8645096355014389</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -2898,10 +2772,8 @@
       <c r="H65">
         <v>66.5439987182617</v>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>0.64578749868604857</t>
-        </is>
+      <c r="I65">
+        <v>0.6457874986860486</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -2937,10 +2809,8 @@
       <c r="H66">
         <v>43.9980010986328</v>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>0.63057612360708126</t>
-        </is>
+      <c r="I66">
+        <v>0.6305761236070813</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -2976,10 +2846,8 @@
       <c r="H67">
         <v>49.6430015563965</v>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>0.73777777777777787</t>
-        </is>
+      <c r="I67">
+        <v>0.7377777777777779</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3015,10 +2883,8 @@
       <c r="H68">
         <v>52.851001739502</v>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>0.87665989134046884</t>
-        </is>
+      <c r="I68">
+        <v>0.8766598913404688</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3054,10 +2920,8 @@
       <c r="H69">
         <v>55.5550003051758</v>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0.76211104398741669</t>
-        </is>
+      <c r="I69">
+        <v>0.7621110439874167</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3093,10 +2957,8 @@
       <c r="H70">
         <v>53.6459999084473</v>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>0.81318784414329781</t>
-        </is>
+      <c r="I70">
+        <v>0.8131878441432978</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3132,10 +2994,8 @@
       <c r="H71">
         <v>44.2039985656738</v>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>0.46785555555555552</t>
-        </is>
+      <c r="I71">
+        <v>0.4678555555555555</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3171,10 +3031,8 @@
       <c r="H72">
         <v>59.1389999389648</v>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>0.6378331078423396</t>
-        </is>
+      <c r="I72">
+        <v>0.6378331078423396</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3210,10 +3068,8 @@
       <c r="H73">
         <v>49.2280006408691</v>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>0.73253801133897578</t>
-        </is>
+      <c r="I73">
+        <v>0.7325380113389758</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3249,10 +3105,8 @@
       <c r="H74">
         <v>77.51999664306641</v>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>0.37055555555555553</t>
-        </is>
+      <c r="I74">
+        <v>0.3705555555555555</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3288,10 +3142,8 @@
       <c r="H75">
         <v>40.1590003967285</v>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>0.77355555555555555</t>
-        </is>
+      <c r="I75">
+        <v>0.7735555555555556</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3327,10 +3179,8 @@
       <c r="H76">
         <v>57.2610015869141</v>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>0.69366666666666665</t>
-        </is>
+      <c r="I76">
+        <v>0.6936666666666667</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -3366,10 +3216,8 @@
       <c r="H77">
         <v>59.0859985351563</v>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>0.37205555555555558</t>
-        </is>
+      <c r="I77">
+        <v>0.3720555555555556</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -3405,10 +3253,8 @@
       <c r="H78">
         <v>55.9620018005371</v>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>0.71809682846069345</t>
-        </is>
+      <c r="I78">
+        <v>0.7180968284606934</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -3444,10 +3290,8 @@
       <c r="H79">
         <v>61.4230003356934</v>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>0.67054444444444439</t>
-        </is>
+      <c r="I79">
+        <v>0.6705444444444444</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -3483,10 +3327,8 @@
       <c r="H80">
         <v>41.5009994506836</v>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>0.52018888888888892</t>
-        </is>
+      <c r="I80">
+        <v>0.5201888888888889</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -3522,10 +3364,8 @@
       <c r="H81">
         <v>63.1139984130859</v>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>0.19793333333333335</t>
-        </is>
+      <c r="I81">
+        <v>0.1979333333333334</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -3561,10 +3401,8 @@
       <c r="H82">
         <v>53.4850006103516</v>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>0.42486000000000002</t>
-        </is>
+      <c r="I82">
+        <v>0.42486</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -3600,10 +3438,8 @@
       <c r="H83">
         <v>60.6619987487793</v>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>0.4839</t>
-        </is>
+      <c r="I83">
+        <v>0.4839</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -3639,10 +3475,8 @@
       <c r="H84">
         <v>59.2939987182617</v>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>0.89353229734632555</t>
-        </is>
+      <c r="I84">
+        <v>0.8935322973463256</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -3678,10 +3512,8 @@
       <c r="H85">
         <v>62.6619987487793</v>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>0.9099222222222223</t>
-        </is>
+      <c r="I85">
+        <v>0.9099222222222223</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -3717,10 +3549,8 @@
       <c r="H86">
         <v>80.53900146484381</v>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>0.45231111111111111</t>
-        </is>
+      <c r="I86">
+        <v>0.4523111111111111</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -3756,10 +3586,8 @@
       <c r="H87">
         <v>64.1669998168945</v>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>0.91676666666666673</t>
-        </is>
+      <c r="I87">
+        <v>0.9167666666666667</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -3795,10 +3623,8 @@
       <c r="H88">
         <v>56.2949981689453</v>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>0.60327911660533562</t>
-        </is>
+      <c r="I88">
+        <v>0.6032791166053356</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -3834,10 +3660,8 @@
       <c r="H89">
         <v>50.7169990539551</v>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>0.37166734271579327</t>
-        </is>
+      <c r="I89">
+        <v>0.3716673427157933</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -3873,10 +3697,8 @@
       <c r="H90">
         <v>62.3320007324219</v>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>0.65741111111111117</t>
-        </is>
+      <c r="I90">
+        <v>0.6574111111111112</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -3912,10 +3734,8 @@
       <c r="H91">
         <v>70.8939971923828</v>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>0.66433787875705286</t>
-        </is>
+      <c r="I91">
+        <v>0.6643378787570529</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -3951,10 +3771,8 @@
       <c r="H92">
         <v>60.3269996643066</v>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>0.60998405554284341</t>
-        </is>
+      <c r="I92">
+        <v>0.6099840555428434</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -3990,10 +3808,8 @@
       <c r="H93">
         <v>51.8129997253418</v>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>0.82469993167453226</t>
-        </is>
+      <c r="I93">
+        <v>0.8246999316745323</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -4029,10 +3845,8 @@
       <c r="H94">
         <v>50.568000793457</v>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>0.72761463589138442</t>
-        </is>
+      <c r="I94">
+        <v>0.7276146358913844</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -4068,10 +3882,8 @@
       <c r="H95">
         <v>67.129997253418</v>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>0.5873222222222223</t>
-        </is>
+      <c r="I95">
+        <v>0.5873222222222223</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -4107,10 +3919,8 @@
       <c r="H96">
         <v>84.41200256347661</v>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>0.68568674723307299</t>
-        </is>
+      <c r="I96">
+        <v>0.685686747233073</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -4146,10 +3956,8 @@
       <c r="H97">
         <v>52.2449989318848</v>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>0.74789428710937667</t>
-        </is>
+      <c r="I97">
+        <v>0.7478942871093767</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -4185,10 +3993,8 @@
       <c r="H98">
         <v>60.1730003356934</v>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>0.77995555555555551</t>
-        </is>
+      <c r="I98">
+        <v>0.7799555555555555</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -4224,10 +4030,8 @@
       <c r="H99">
         <v>51.4560012817383</v>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>0.72317409718831382</t>
-        </is>
+      <c r="I99">
+        <v>0.7231740971883138</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -4263,10 +4067,8 @@
       <c r="H100">
         <v>41.8629989624023</v>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>0.30595555555555554</t>
-        </is>
+      <c r="I100">
+        <v>0.3059555555555555</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -4302,10 +4104,8 @@
       <c r="H101">
         <v>50.9809989929199</v>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>0.36781111111111109</t>
-        </is>
+      <c r="I101">
+        <v>0.3678111111111111</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -4341,10 +4141,8 @@
       <c r="H102">
         <v>65.4970016479492</v>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>0.76777777777777778</t>
-        </is>
+      <c r="I102">
+        <v>0.7677777777777778</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -4380,10 +4178,8 @@
       <c r="H103">
         <v>58.9449996948242</v>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>0.55326187875535737</t>
-        </is>
+      <c r="I103">
+        <v>0.5532618787553574</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -4419,10 +4215,8 @@
       <c r="H104">
         <v>41.7789993286133</v>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>0.69544444444444442</t>
-        </is>
+      <c r="I104">
+        <v>0.6954444444444444</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -4458,10 +4252,8 @@
       <c r="H105">
         <v>50.6860008239746</v>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>0.58838028907775863</t>
-        </is>
+      <c r="I105">
+        <v>0.5883802890777586</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -4497,10 +4289,8 @@
       <c r="H106">
         <v>52.1640014648438</v>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>0.86308333079020338</t>
-        </is>
+      <c r="I106">
+        <v>0.8630833307902034</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -4536,10 +4326,8 @@
       <c r="H107">
         <v>59.439998626709</v>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>0.83013401108026019</t>
-        </is>
+      <c r="I107">
+        <v>0.8301340110802602</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -4575,10 +4363,8 @@
       <c r="H108">
         <v>75.3280029296875</v>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>0.51442222222222223</t>
-        </is>
+      <c r="I108">
+        <v>0.5144222222222222</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -4614,10 +4400,8 @@
       <c r="H109">
         <v>70.9059982299805</v>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>0.60796528392367888</t>
-        </is>
+      <c r="I109">
+        <v>0.6079652839236789</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -4653,10 +4437,8 @@
       <c r="H110">
         <v>60.9739990234375</v>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>0.63944444444444448</t>
-        </is>
+      <c r="I110">
+        <v>0.6394444444444445</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -4692,10 +4474,8 @@
       <c r="H111">
         <v>60.8610000610352</v>
       </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>0.70032068888346333</t>
-        </is>
+      <c r="I111">
+        <v>0.7003206888834633</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -4731,10 +4511,8 @@
       <c r="H112">
         <v>40.1269989013672</v>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>0.62145555555555554</t>
-        </is>
+      <c r="I112">
+        <v>0.6214555555555555</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -4770,10 +4548,8 @@
       <c r="H113">
         <v>45.3240013122559</v>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>0.65202369689941397</t>
-        </is>
+      <c r="I113">
+        <v>0.652023696899414</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -4809,10 +4585,8 @@
       <c r="H114">
         <v>76.963996887207</v>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>0.42588888888888887</t>
-        </is>
+      <c r="I114">
+        <v>0.4258888888888889</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -4848,10 +4622,8 @@
       <c r="H115">
         <v>53.4739990234375</v>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>0.79551111111111106</t>
-        </is>
+      <c r="I115">
+        <v>0.7955111111111111</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -4887,10 +4659,8 @@
       <c r="H116">
         <v>61.0830001831055</v>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>0.71226242913140192</t>
-        </is>
+      <c r="I116">
+        <v>0.7122624291314019</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -4926,10 +4696,8 @@
       <c r="H117">
         <v>58.3740005493164</v>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>0.88975920702848532</t>
-        </is>
+      <c r="I117">
+        <v>0.8897592070284853</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -4965,10 +4733,8 @@
       <c r="H118">
         <v>39.5919990539551</v>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>0.69544716386583105</t>
-        </is>
+      <c r="I118">
+        <v>0.6954471638658311</v>
       </c>
       <c r="J118">
         <v>1</v>
